--- a/directed trips and regulations 2021.xlsx
+++ b/directed trips and regulations 2021.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="29">
   <si>
     <t>dtrip</t>
   </si>
@@ -94,6 +94,24 @@
   </si>
   <si>
     <t>50 fish for for-hire</t>
+  </si>
+  <si>
+    <t>fluke_bag1</t>
+  </si>
+  <si>
+    <t>fluke_min1</t>
+  </si>
+  <si>
+    <t>fluke_max1</t>
+  </si>
+  <si>
+    <t>fluke_bag2</t>
+  </si>
+  <si>
+    <t>fluke_min2</t>
+  </si>
+  <si>
+    <t>fluke_max2</t>
   </si>
 </sst>
 </file>
@@ -422,11 +440,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J156"/>
+  <dimension ref="A1:P156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L11" sqref="L11"/>
+      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2:L156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -437,14 +455,15 @@
     <col min="4" max="4" width="8.88671875" style="5"/>
     <col min="5" max="5" width="9" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.77734375" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="5"/>
+    <col min="7" max="12" width="9.44140625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="7.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -463,20 +482,38 @@
       <c r="F1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="5" t="s">
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>2024</v>
       </c>
@@ -495,20 +532,38 @@
       <c r="F2" s="2">
         <v>100</v>
       </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2">
-        <v>100</v>
-      </c>
-      <c r="I2" s="2">
-        <v>30</v>
-      </c>
-      <c r="J2" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2">
+        <v>100</v>
+      </c>
+      <c r="O2" s="2">
+        <v>30</v>
+      </c>
+      <c r="P2" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>18523</v>
       </c>
@@ -527,20 +582,38 @@
       <c r="F3" s="2">
         <v>100</v>
       </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2">
-        <v>100</v>
-      </c>
-      <c r="I3" s="2">
-        <v>30</v>
-      </c>
-      <c r="J3" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2">
+        <v>100</v>
+      </c>
+      <c r="O3" s="2">
+        <v>30</v>
+      </c>
+      <c r="P3" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>61494</v>
       </c>
@@ -559,20 +632,38 @@
       <c r="F4" s="2">
         <v>100</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
         <v>5</v>
       </c>
-      <c r="H4" s="2">
-        <v>15</v>
-      </c>
-      <c r="I4" s="2">
-        <v>30</v>
-      </c>
-      <c r="J4" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N4" s="2">
+        <v>15</v>
+      </c>
+      <c r="O4" s="2">
+        <v>30</v>
+      </c>
+      <c r="P4" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>155265</v>
       </c>
@@ -591,20 +682,38 @@
       <c r="F5" s="2">
         <v>100</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
         <v>5</v>
       </c>
-      <c r="H5" s="2">
-        <v>15</v>
-      </c>
-      <c r="I5" s="2">
-        <v>30</v>
-      </c>
-      <c r="J5" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N5" s="2">
+        <v>15</v>
+      </c>
+      <c r="O5" s="2">
+        <v>30</v>
+      </c>
+      <c r="P5" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>238367</v>
       </c>
@@ -623,20 +732,38 @@
       <c r="F6" s="2">
         <v>100</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
         <v>5</v>
       </c>
-      <c r="H6" s="2">
-        <v>15</v>
-      </c>
-      <c r="I6" s="2">
-        <v>30</v>
-      </c>
-      <c r="J6" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N6" s="2">
+        <v>15</v>
+      </c>
+      <c r="O6" s="2">
+        <v>30</v>
+      </c>
+      <c r="P6" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>63838</v>
       </c>
@@ -655,20 +782,38 @@
       <c r="F7" s="2">
         <v>100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
         <v>5</v>
       </c>
-      <c r="H7" s="2">
-        <v>15</v>
-      </c>
-      <c r="I7" s="2">
-        <v>30</v>
-      </c>
-      <c r="J7" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N7" s="2">
+        <v>15</v>
+      </c>
+      <c r="O7" s="2">
+        <v>30</v>
+      </c>
+      <c r="P7" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>169120</v>
       </c>
@@ -687,20 +832,38 @@
       <c r="F8" s="2">
         <v>100</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
         <v>5</v>
       </c>
-      <c r="H8" s="2">
-        <v>15</v>
-      </c>
-      <c r="I8" s="2">
-        <v>30</v>
-      </c>
-      <c r="J8" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N8" s="2">
+        <v>15</v>
+      </c>
+      <c r="O8" s="2">
+        <v>30</v>
+      </c>
+      <c r="P8" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>206140</v>
       </c>
@@ -719,20 +882,38 @@
       <c r="F9" s="2">
         <v>100</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
         <v>5</v>
       </c>
-      <c r="H9" s="2">
-        <v>15</v>
-      </c>
-      <c r="I9" s="2">
-        <v>30</v>
-      </c>
-      <c r="J9" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N9" s="2">
+        <v>15</v>
+      </c>
+      <c r="O9" s="2">
+        <v>30</v>
+      </c>
+      <c r="P9" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>97789</v>
       </c>
@@ -751,20 +932,38 @@
       <c r="F10" s="2">
         <v>100</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2">
         <v>5</v>
       </c>
-      <c r="H10" s="2">
-        <v>15</v>
-      </c>
-      <c r="I10" s="2">
-        <v>30</v>
-      </c>
-      <c r="J10" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N10" s="2">
+        <v>15</v>
+      </c>
+      <c r="O10" s="2">
+        <v>30</v>
+      </c>
+      <c r="P10" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>197753</v>
       </c>
@@ -783,20 +982,38 @@
       <c r="F11" s="2">
         <v>100</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2">
         <v>5</v>
       </c>
-      <c r="H11" s="2">
-        <v>15</v>
-      </c>
-      <c r="I11" s="2">
-        <v>30</v>
-      </c>
-      <c r="J11" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N11" s="2">
+        <v>15</v>
+      </c>
+      <c r="O11" s="2">
+        <v>30</v>
+      </c>
+      <c r="P11" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>112253</v>
       </c>
@@ -815,20 +1032,38 @@
       <c r="F12" s="2">
         <v>100</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
         <v>5</v>
       </c>
-      <c r="H12" s="2">
-        <v>15</v>
-      </c>
-      <c r="I12" s="2">
-        <v>30</v>
-      </c>
-      <c r="J12" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N12" s="2">
+        <v>15</v>
+      </c>
+      <c r="O12" s="2">
+        <v>30</v>
+      </c>
+      <c r="P12" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>156450</v>
       </c>
@@ -847,20 +1082,38 @@
       <c r="F13" s="2">
         <v>100</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13" s="2">
         <v>5</v>
       </c>
-      <c r="H13" s="2">
-        <v>15</v>
-      </c>
-      <c r="I13" s="2">
-        <v>30</v>
-      </c>
-      <c r="J13" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N13" s="2">
+        <v>15</v>
+      </c>
+      <c r="O13" s="2">
+        <v>30</v>
+      </c>
+      <c r="P13" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>99099</v>
       </c>
@@ -879,20 +1132,38 @@
       <c r="F14" s="2">
         <v>100</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14" s="2">
         <v>5</v>
       </c>
-      <c r="H14" s="2">
-        <v>15</v>
-      </c>
-      <c r="I14" s="2">
-        <v>30</v>
-      </c>
-      <c r="J14" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N14" s="2">
+        <v>15</v>
+      </c>
+      <c r="O14" s="2">
+        <v>30</v>
+      </c>
+      <c r="P14" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>74158</v>
       </c>
@@ -911,20 +1182,38 @@
       <c r="F15" s="2">
         <v>100</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15" s="2">
         <v>5</v>
       </c>
-      <c r="H15" s="2">
-        <v>15</v>
-      </c>
-      <c r="I15" s="2">
-        <v>30</v>
-      </c>
-      <c r="J15" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N15" s="2">
+        <v>15</v>
+      </c>
+      <c r="O15" s="2">
+        <v>30</v>
+      </c>
+      <c r="P15" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>5227</v>
       </c>
@@ -943,20 +1232,38 @@
       <c r="F16" s="2">
         <v>100</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16" s="2">
         <v>5</v>
       </c>
-      <c r="H16" s="2">
-        <v>15</v>
-      </c>
-      <c r="I16" s="2">
-        <v>30</v>
-      </c>
-      <c r="J16" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N16" s="2">
+        <v>15</v>
+      </c>
+      <c r="O16" s="2">
+        <v>30</v>
+      </c>
+      <c r="P16" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>5951</v>
       </c>
@@ -975,20 +1282,38 @@
       <c r="F17" s="2">
         <v>100</v>
       </c>
-      <c r="G17" s="2">
-        <v>0</v>
-      </c>
-      <c r="H17" s="2">
-        <v>100</v>
-      </c>
-      <c r="I17" s="2">
-        <v>50</v>
-      </c>
-      <c r="J17" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0</v>
+      </c>
+      <c r="N17" s="2">
+        <v>100</v>
+      </c>
+      <c r="O17" s="2">
+        <v>50</v>
+      </c>
+      <c r="P17" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>9947</v>
       </c>
@@ -1007,20 +1332,38 @@
       <c r="F18" s="2">
         <v>100</v>
       </c>
-      <c r="G18" s="2">
-        <v>0</v>
-      </c>
-      <c r="H18" s="2">
-        <v>100</v>
-      </c>
-      <c r="I18" s="2">
-        <v>50</v>
-      </c>
-      <c r="J18" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0</v>
+      </c>
+      <c r="N18" s="2">
+        <v>100</v>
+      </c>
+      <c r="O18" s="2">
+        <v>50</v>
+      </c>
+      <c r="P18" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>60896</v>
       </c>
@@ -1039,20 +1382,38 @@
       <c r="F19" s="2">
         <v>100</v>
       </c>
-      <c r="G19" s="2">
-        <v>15</v>
-      </c>
-      <c r="H19" s="2">
-        <v>13</v>
-      </c>
-      <c r="I19" s="2">
-        <v>50</v>
-      </c>
-      <c r="J19" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19" s="2">
+        <v>15</v>
+      </c>
+      <c r="N19" s="2">
+        <v>13</v>
+      </c>
+      <c r="O19" s="2">
+        <v>50</v>
+      </c>
+      <c r="P19" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>38034</v>
       </c>
@@ -1071,20 +1432,38 @@
       <c r="F20" s="2">
         <v>100</v>
       </c>
-      <c r="G20" s="2">
-        <v>15</v>
-      </c>
-      <c r="H20" s="2">
-        <v>13</v>
-      </c>
-      <c r="I20" s="2">
-        <v>50</v>
-      </c>
-      <c r="J20" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20" s="2">
+        <v>15</v>
+      </c>
+      <c r="N20" s="2">
+        <v>13</v>
+      </c>
+      <c r="O20" s="2">
+        <v>50</v>
+      </c>
+      <c r="P20" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>111847</v>
       </c>
@@ -1103,20 +1482,38 @@
       <c r="F21" s="2">
         <v>100</v>
       </c>
-      <c r="G21" s="2">
-        <v>15</v>
-      </c>
-      <c r="H21" s="2">
-        <v>13</v>
-      </c>
-      <c r="I21" s="2">
-        <v>50</v>
-      </c>
-      <c r="J21" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21" s="2">
+        <v>15</v>
+      </c>
+      <c r="N21" s="2">
+        <v>13</v>
+      </c>
+      <c r="O21" s="2">
+        <v>50</v>
+      </c>
+      <c r="P21" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>66953</v>
       </c>
@@ -1135,20 +1532,38 @@
       <c r="F22" s="2">
         <v>100</v>
       </c>
-      <c r="G22" s="2">
-        <v>15</v>
-      </c>
-      <c r="H22" s="2">
-        <v>13</v>
-      </c>
-      <c r="I22" s="2">
-        <v>50</v>
-      </c>
-      <c r="J22" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22" s="2">
+        <v>15</v>
+      </c>
+      <c r="N22" s="2">
+        <v>13</v>
+      </c>
+      <c r="O22" s="2">
+        <v>50</v>
+      </c>
+      <c r="P22" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>87332</v>
       </c>
@@ -1167,20 +1582,38 @@
       <c r="F23" s="2">
         <v>100</v>
       </c>
-      <c r="G23" s="2">
-        <v>15</v>
-      </c>
-      <c r="H23" s="2">
-        <v>13</v>
-      </c>
-      <c r="I23" s="2">
-        <v>50</v>
-      </c>
-      <c r="J23" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23" s="2">
+        <v>15</v>
+      </c>
+      <c r="N23" s="2">
+        <v>13</v>
+      </c>
+      <c r="O23" s="2">
+        <v>50</v>
+      </c>
+      <c r="P23" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>66111</v>
       </c>
@@ -1199,20 +1632,38 @@
       <c r="F24" s="2">
         <v>100</v>
       </c>
-      <c r="G24" s="2">
-        <v>15</v>
-      </c>
-      <c r="H24" s="2">
-        <v>13</v>
-      </c>
-      <c r="I24" s="2">
-        <v>50</v>
-      </c>
-      <c r="J24" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24" s="2">
+        <v>15</v>
+      </c>
+      <c r="N24" s="2">
+        <v>13</v>
+      </c>
+      <c r="O24" s="2">
+        <v>50</v>
+      </c>
+      <c r="P24" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>48244</v>
       </c>
@@ -1231,20 +1682,38 @@
       <c r="F25" s="2">
         <v>100</v>
       </c>
-      <c r="G25" s="2">
-        <v>15</v>
-      </c>
-      <c r="H25" s="2">
-        <v>13</v>
-      </c>
-      <c r="I25" s="2">
-        <v>50</v>
-      </c>
-      <c r="J25" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25" s="2">
+        <v>15</v>
+      </c>
+      <c r="N25" s="2">
+        <v>13</v>
+      </c>
+      <c r="O25" s="2">
+        <v>50</v>
+      </c>
+      <c r="P25" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>52389</v>
       </c>
@@ -1263,20 +1732,38 @@
       <c r="F26" s="2">
         <v>100</v>
       </c>
-      <c r="G26" s="2">
-        <v>15</v>
-      </c>
-      <c r="H26" s="2">
-        <v>13</v>
-      </c>
-      <c r="I26" s="2">
-        <v>50</v>
-      </c>
-      <c r="J26" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26" s="2">
+        <v>15</v>
+      </c>
+      <c r="N26" s="2">
+        <v>13</v>
+      </c>
+      <c r="O26" s="2">
+        <v>50</v>
+      </c>
+      <c r="P26" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>39256</v>
       </c>
@@ -1295,20 +1782,38 @@
       <c r="F27" s="2">
         <v>100</v>
       </c>
-      <c r="G27" s="2">
-        <v>15</v>
-      </c>
-      <c r="H27" s="2">
-        <v>13</v>
-      </c>
-      <c r="I27" s="2">
-        <v>50</v>
-      </c>
-      <c r="J27" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27" s="2">
+        <v>15</v>
+      </c>
+      <c r="N27" s="2">
+        <v>13</v>
+      </c>
+      <c r="O27" s="2">
+        <v>50</v>
+      </c>
+      <c r="P27" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>23461</v>
       </c>
@@ -1327,20 +1832,38 @@
       <c r="F28" s="2">
         <v>100</v>
       </c>
-      <c r="G28" s="2">
-        <v>0</v>
-      </c>
-      <c r="H28" s="2">
-        <v>100</v>
-      </c>
-      <c r="I28" s="2">
-        <v>50</v>
-      </c>
-      <c r="J28" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28" s="2">
+        <v>0</v>
+      </c>
+      <c r="N28" s="2">
+        <v>100</v>
+      </c>
+      <c r="O28" s="2">
+        <v>50</v>
+      </c>
+      <c r="P28" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>10092</v>
       </c>
@@ -1359,20 +1882,38 @@
       <c r="F29" s="2">
         <v>100</v>
       </c>
-      <c r="G29" s="2">
-        <v>15</v>
-      </c>
-      <c r="H29" s="2">
-        <v>13</v>
-      </c>
-      <c r="I29" s="2">
-        <v>50</v>
-      </c>
-      <c r="J29" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29" s="2">
+        <v>15</v>
+      </c>
+      <c r="N29" s="2">
+        <v>13</v>
+      </c>
+      <c r="O29" s="2">
+        <v>50</v>
+      </c>
+      <c r="P29" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>8745</v>
       </c>
@@ -1391,20 +1932,38 @@
       <c r="F30" s="2">
         <v>100</v>
       </c>
-      <c r="G30" s="2">
-        <v>15</v>
-      </c>
-      <c r="H30" s="2">
-        <v>13</v>
-      </c>
-      <c r="I30" s="2">
-        <v>50</v>
-      </c>
-      <c r="J30" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30" s="2">
+        <v>15</v>
+      </c>
+      <c r="N30" s="2">
+        <v>13</v>
+      </c>
+      <c r="O30" s="2">
+        <v>50</v>
+      </c>
+      <c r="P30" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>10107</v>
       </c>
@@ -1423,20 +1982,38 @@
       <c r="F31" s="2">
         <v>100</v>
       </c>
-      <c r="G31" s="2">
-        <v>15</v>
-      </c>
-      <c r="H31" s="2">
-        <v>13</v>
-      </c>
-      <c r="I31" s="2">
-        <v>50</v>
-      </c>
-      <c r="J31" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31" s="2">
+        <v>15</v>
+      </c>
+      <c r="N31" s="2">
+        <v>13</v>
+      </c>
+      <c r="O31" s="2">
+        <v>50</v>
+      </c>
+      <c r="P31" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>6199</v>
       </c>
@@ -1455,20 +2032,38 @@
       <c r="F32" s="2">
         <v>100</v>
       </c>
-      <c r="G32" s="2">
-        <v>15</v>
-      </c>
-      <c r="H32" s="2">
-        <v>13</v>
-      </c>
-      <c r="I32" s="2">
-        <v>50</v>
-      </c>
-      <c r="J32" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32" s="2">
+        <v>15</v>
+      </c>
+      <c r="N32" s="2">
+        <v>13</v>
+      </c>
+      <c r="O32" s="2">
+        <v>50</v>
+      </c>
+      <c r="P32" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>51893</v>
       </c>
@@ -1487,20 +2082,38 @@
       <c r="F33" s="2">
         <v>100</v>
       </c>
-      <c r="G33" s="2">
-        <v>0</v>
-      </c>
-      <c r="H33" s="2">
-        <v>100</v>
-      </c>
-      <c r="I33" s="2">
-        <v>30</v>
-      </c>
-      <c r="J33" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33" s="2">
+        <v>0</v>
+      </c>
+      <c r="N33" s="2">
+        <v>100</v>
+      </c>
+      <c r="O33" s="2">
+        <v>30</v>
+      </c>
+      <c r="P33" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>24443</v>
       </c>
@@ -1519,20 +2132,38 @@
       <c r="F34" s="2">
         <v>100</v>
       </c>
-      <c r="G34" s="2">
-        <v>0</v>
-      </c>
-      <c r="H34" s="2">
-        <v>100</v>
-      </c>
-      <c r="I34" s="2">
-        <v>30</v>
-      </c>
-      <c r="J34" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34" s="2">
+        <v>0</v>
+      </c>
+      <c r="N34" s="2">
+        <v>100</v>
+      </c>
+      <c r="O34" s="2">
+        <v>30</v>
+      </c>
+      <c r="P34" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>76598</v>
       </c>
@@ -1551,20 +2182,38 @@
       <c r="F35" s="2">
         <v>100</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35" s="2">
         <v>5</v>
       </c>
-      <c r="H35" s="2">
-        <v>15</v>
-      </c>
-      <c r="I35" s="2">
-        <v>30</v>
-      </c>
-      <c r="J35" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N35" s="2">
+        <v>15</v>
+      </c>
+      <c r="O35" s="2">
+        <v>30</v>
+      </c>
+      <c r="P35" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>240461</v>
       </c>
@@ -1583,20 +2232,38 @@
       <c r="F36" s="2">
         <v>100</v>
       </c>
-      <c r="G36" s="2">
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36" s="2">
         <v>5</v>
       </c>
-      <c r="H36" s="2">
-        <v>15</v>
-      </c>
-      <c r="I36" s="2">
-        <v>30</v>
-      </c>
-      <c r="J36" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N36" s="2">
+        <v>15</v>
+      </c>
+      <c r="O36" s="2">
+        <v>30</v>
+      </c>
+      <c r="P36" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>88280</v>
       </c>
@@ -1615,20 +2282,38 @@
       <c r="F37" s="2">
         <v>100</v>
       </c>
-      <c r="G37" s="2">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37" s="2">
         <v>5</v>
       </c>
-      <c r="H37" s="2">
-        <v>15</v>
-      </c>
-      <c r="I37" s="2">
-        <v>30</v>
-      </c>
-      <c r="J37" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N37" s="2">
+        <v>15</v>
+      </c>
+      <c r="O37" s="2">
+        <v>30</v>
+      </c>
+      <c r="P37" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>47023</v>
       </c>
@@ -1647,20 +2332,38 @@
       <c r="F38" s="2">
         <v>100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38" s="2">
         <v>5</v>
       </c>
-      <c r="H38" s="2">
-        <v>15</v>
-      </c>
-      <c r="I38" s="2">
-        <v>30</v>
-      </c>
-      <c r="J38" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N38" s="2">
+        <v>15</v>
+      </c>
+      <c r="O38" s="2">
+        <v>30</v>
+      </c>
+      <c r="P38" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>264641</v>
       </c>
@@ -1679,20 +2382,38 @@
       <c r="F39" s="2">
         <v>100</v>
       </c>
-      <c r="G39" s="2">
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39" s="2">
         <v>5</v>
       </c>
-      <c r="H39" s="2">
-        <v>15</v>
-      </c>
-      <c r="I39" s="2">
-        <v>30</v>
-      </c>
-      <c r="J39" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N39" s="2">
+        <v>15</v>
+      </c>
+      <c r="O39" s="2">
+        <v>30</v>
+      </c>
+      <c r="P39" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>71448</v>
       </c>
@@ -1711,20 +2432,38 @@
       <c r="F40" s="2">
         <v>100</v>
       </c>
-      <c r="G40" s="2">
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40" s="2">
         <v>5</v>
       </c>
-      <c r="H40" s="2">
-        <v>15</v>
-      </c>
-      <c r="I40" s="2">
-        <v>30</v>
-      </c>
-      <c r="J40" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N40" s="2">
+        <v>15</v>
+      </c>
+      <c r="O40" s="2">
+        <v>30</v>
+      </c>
+      <c r="P40" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>28004</v>
       </c>
@@ -1743,20 +2482,38 @@
       <c r="F41" s="2">
         <v>100</v>
       </c>
-      <c r="G41" s="2">
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41" s="2">
         <v>5</v>
       </c>
-      <c r="H41" s="2">
-        <v>15</v>
-      </c>
-      <c r="I41" s="2">
-        <v>30</v>
-      </c>
-      <c r="J41" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N41" s="2">
+        <v>15</v>
+      </c>
+      <c r="O41" s="2">
+        <v>30</v>
+      </c>
+      <c r="P41" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>57877</v>
       </c>
@@ -1775,20 +2532,38 @@
       <c r="F42" s="2">
         <v>100</v>
       </c>
-      <c r="G42" s="2">
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42" s="2">
         <v>5</v>
       </c>
-      <c r="H42" s="2">
-        <v>15</v>
-      </c>
-      <c r="I42" s="2">
-        <v>30</v>
-      </c>
-      <c r="J42" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N42" s="2">
+        <v>15</v>
+      </c>
+      <c r="O42" s="2">
+        <v>30</v>
+      </c>
+      <c r="P42" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>78646</v>
       </c>
@@ -1807,20 +2582,38 @@
       <c r="F43" s="2">
         <v>100</v>
       </c>
-      <c r="G43" s="2">
-        <v>0</v>
-      </c>
-      <c r="H43" s="2">
-        <v>100</v>
-      </c>
-      <c r="I43" s="2">
-        <v>30</v>
-      </c>
-      <c r="J43" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43" s="2">
+        <v>0</v>
+      </c>
+      <c r="N43" s="2">
+        <v>100</v>
+      </c>
+      <c r="O43" s="2">
+        <v>30</v>
+      </c>
+      <c r="P43" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <v>34684</v>
       </c>
@@ -1839,20 +2632,38 @@
       <c r="F44" s="2">
         <v>100</v>
       </c>
-      <c r="G44" s="2">
-        <v>0</v>
-      </c>
-      <c r="H44" s="2">
-        <v>100</v>
-      </c>
-      <c r="I44" s="2">
-        <v>30</v>
-      </c>
-      <c r="J44" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44" s="2">
+        <v>0</v>
+      </c>
+      <c r="N44" s="2">
+        <v>100</v>
+      </c>
+      <c r="O44" s="2">
+        <v>30</v>
+      </c>
+      <c r="P44" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <v>42869</v>
       </c>
@@ -1871,20 +2682,38 @@
       <c r="F45" s="2">
         <v>100</v>
       </c>
-      <c r="G45" s="2">
-        <v>0</v>
-      </c>
-      <c r="H45" s="2">
-        <v>100</v>
-      </c>
-      <c r="I45" s="2">
-        <v>30</v>
-      </c>
-      <c r="J45" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45" s="2">
+        <v>0</v>
+      </c>
+      <c r="N45" s="2">
+        <v>100</v>
+      </c>
+      <c r="O45" s="2">
+        <v>30</v>
+      </c>
+      <c r="P45" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>41814</v>
       </c>
@@ -1903,20 +2732,38 @@
       <c r="F46" s="2">
         <v>100</v>
       </c>
-      <c r="G46" s="2">
-        <v>0</v>
-      </c>
-      <c r="H46" s="2">
-        <v>100</v>
-      </c>
-      <c r="I46" s="2">
-        <v>30</v>
-      </c>
-      <c r="J46" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46" s="2">
+        <v>0</v>
+      </c>
+      <c r="N46" s="2">
+        <v>100</v>
+      </c>
+      <c r="O46" s="2">
+        <v>30</v>
+      </c>
+      <c r="P46" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
         <v>31077</v>
       </c>
@@ -1935,20 +2782,38 @@
       <c r="F47" s="2">
         <v>100</v>
       </c>
-      <c r="G47" s="2">
-        <v>0</v>
-      </c>
-      <c r="H47" s="2">
-        <v>100</v>
-      </c>
-      <c r="I47" s="2">
-        <v>30</v>
-      </c>
-      <c r="J47" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47" s="2">
+        <v>0</v>
+      </c>
+      <c r="N47" s="2">
+        <v>100</v>
+      </c>
+      <c r="O47" s="2">
+        <v>30</v>
+      </c>
+      <c r="P47" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
         <v>6607</v>
       </c>
@@ -1967,20 +2832,38 @@
       <c r="F48" s="2">
         <v>100</v>
       </c>
-      <c r="G48" s="2">
-        <v>0</v>
-      </c>
-      <c r="H48" s="2">
-        <v>100</v>
-      </c>
-      <c r="I48" s="2">
-        <v>50</v>
-      </c>
-      <c r="J48" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48" s="2">
+        <v>0</v>
+      </c>
+      <c r="N48" s="2">
+        <v>100</v>
+      </c>
+      <c r="O48" s="2">
+        <v>50</v>
+      </c>
+      <c r="P48" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
         <v>9385</v>
       </c>
@@ -1999,20 +2882,38 @@
       <c r="F49" s="2">
         <v>100</v>
       </c>
-      <c r="G49" s="2">
-        <v>0</v>
-      </c>
-      <c r="H49" s="2">
-        <v>100</v>
-      </c>
-      <c r="I49" s="2">
-        <v>50</v>
-      </c>
-      <c r="J49" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49" s="2">
+        <v>0</v>
+      </c>
+      <c r="N49" s="2">
+        <v>100</v>
+      </c>
+      <c r="O49" s="2">
+        <v>50</v>
+      </c>
+      <c r="P49" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>68687</v>
       </c>
@@ -2031,20 +2932,38 @@
       <c r="F50" s="2">
         <v>100</v>
       </c>
-      <c r="G50" s="2">
-        <v>0</v>
-      </c>
-      <c r="H50" s="2">
-        <v>100</v>
-      </c>
-      <c r="I50" s="2">
-        <v>50</v>
-      </c>
-      <c r="J50" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50" s="2">
+        <v>0</v>
+      </c>
+      <c r="N50" s="2">
+        <v>100</v>
+      </c>
+      <c r="O50" s="2">
+        <v>50</v>
+      </c>
+      <c r="P50" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
         <v>2024</v>
       </c>
@@ -2063,20 +2982,38 @@
       <c r="F51" s="2">
         <v>100</v>
       </c>
-      <c r="G51" s="2">
-        <v>0</v>
-      </c>
-      <c r="H51" s="2">
-        <v>100</v>
-      </c>
-      <c r="I51" s="2">
-        <v>50</v>
-      </c>
-      <c r="J51" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51" s="2">
+        <v>0</v>
+      </c>
+      <c r="N51" s="2">
+        <v>100</v>
+      </c>
+      <c r="O51" s="2">
+        <v>50</v>
+      </c>
+      <c r="P51" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
         <v>24734</v>
       </c>
@@ -2095,20 +3032,38 @@
       <c r="F52" s="2">
         <v>100</v>
       </c>
-      <c r="G52" s="2">
-        <v>15</v>
-      </c>
-      <c r="H52" s="2">
-        <v>13</v>
-      </c>
-      <c r="I52" s="2">
-        <v>50</v>
-      </c>
-      <c r="J52" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52" s="2">
+        <v>15</v>
+      </c>
+      <c r="N52" s="2">
+        <v>13</v>
+      </c>
+      <c r="O52" s="2">
+        <v>50</v>
+      </c>
+      <c r="P52" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
         <v>18475</v>
       </c>
@@ -2127,20 +3082,38 @@
       <c r="F53" s="2">
         <v>100</v>
       </c>
-      <c r="G53" s="2">
-        <v>15</v>
-      </c>
-      <c r="H53" s="2">
-        <v>13</v>
-      </c>
-      <c r="I53" s="2">
-        <v>50</v>
-      </c>
-      <c r="J53" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53" s="2">
+        <v>15</v>
+      </c>
+      <c r="N53" s="2">
+        <v>13</v>
+      </c>
+      <c r="O53" s="2">
+        <v>50</v>
+      </c>
+      <c r="P53" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
         <v>58536</v>
       </c>
@@ -2159,20 +3132,38 @@
       <c r="F54" s="2">
         <v>100</v>
       </c>
-      <c r="G54" s="2">
-        <v>15</v>
-      </c>
-      <c r="H54" s="2">
-        <v>13</v>
-      </c>
-      <c r="I54" s="2">
-        <v>50</v>
-      </c>
-      <c r="J54" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54" s="2">
+        <v>15</v>
+      </c>
+      <c r="N54" s="2">
+        <v>13</v>
+      </c>
+      <c r="O54" s="2">
+        <v>50</v>
+      </c>
+      <c r="P54" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" s="5">
         <v>102960</v>
       </c>
@@ -2191,20 +3182,38 @@
       <c r="F55" s="2">
         <v>100</v>
       </c>
-      <c r="G55" s="2">
-        <v>15</v>
-      </c>
-      <c r="H55" s="2">
-        <v>13</v>
-      </c>
-      <c r="I55" s="2">
-        <v>50</v>
-      </c>
-      <c r="J55" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55" s="2">
+        <v>15</v>
+      </c>
+      <c r="N55" s="2">
+        <v>13</v>
+      </c>
+      <c r="O55" s="2">
+        <v>50</v>
+      </c>
+      <c r="P55" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" s="5">
         <v>85834</v>
       </c>
@@ -2223,20 +3232,38 @@
       <c r="F56" s="2">
         <v>100</v>
       </c>
-      <c r="G56" s="2">
-        <v>15</v>
-      </c>
-      <c r="H56" s="2">
-        <v>13</v>
-      </c>
-      <c r="I56" s="2">
-        <v>50</v>
-      </c>
-      <c r="J56" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56" s="2">
+        <v>15</v>
+      </c>
+      <c r="N56" s="2">
+        <v>13</v>
+      </c>
+      <c r="O56" s="2">
+        <v>50</v>
+      </c>
+      <c r="P56" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" s="5">
         <v>89900</v>
       </c>
@@ -2255,20 +3282,38 @@
       <c r="F57" s="2">
         <v>100</v>
       </c>
-      <c r="G57" s="2">
-        <v>15</v>
-      </c>
-      <c r="H57" s="2">
-        <v>13</v>
-      </c>
-      <c r="I57" s="2">
-        <v>50</v>
-      </c>
-      <c r="J57" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57" s="2">
+        <v>15</v>
+      </c>
+      <c r="N57" s="2">
+        <v>13</v>
+      </c>
+      <c r="O57" s="2">
+        <v>50</v>
+      </c>
+      <c r="P57" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" s="5">
         <v>42604</v>
       </c>
@@ -2287,20 +3332,38 @@
       <c r="F58" s="2">
         <v>100</v>
       </c>
-      <c r="G58" s="2">
-        <v>15</v>
-      </c>
-      <c r="H58" s="2">
-        <v>13</v>
-      </c>
-      <c r="I58" s="2">
-        <v>50</v>
-      </c>
-      <c r="J58" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58" s="2">
+        <v>15</v>
+      </c>
+      <c r="N58" s="2">
+        <v>13</v>
+      </c>
+      <c r="O58" s="2">
+        <v>50</v>
+      </c>
+      <c r="P58" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" s="5">
         <v>66365</v>
       </c>
@@ -2319,20 +3382,38 @@
       <c r="F59" s="2">
         <v>100</v>
       </c>
-      <c r="G59" s="2">
-        <v>15</v>
-      </c>
-      <c r="H59" s="2">
-        <v>13</v>
-      </c>
-      <c r="I59" s="2">
-        <v>50</v>
-      </c>
-      <c r="J59" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59" s="2">
+        <v>15</v>
+      </c>
+      <c r="N59" s="2">
+        <v>13</v>
+      </c>
+      <c r="O59" s="2">
+        <v>50</v>
+      </c>
+      <c r="P59" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" s="5">
         <v>63796</v>
       </c>
@@ -2351,20 +3432,38 @@
       <c r="F60" s="2">
         <v>100</v>
       </c>
-      <c r="G60" s="2">
-        <v>15</v>
-      </c>
-      <c r="H60" s="2">
-        <v>13</v>
-      </c>
-      <c r="I60" s="2">
-        <v>50</v>
-      </c>
-      <c r="J60" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60" s="2">
+        <v>15</v>
+      </c>
+      <c r="N60" s="2">
+        <v>13</v>
+      </c>
+      <c r="O60" s="2">
+        <v>50</v>
+      </c>
+      <c r="P60" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" s="5">
         <v>214313</v>
       </c>
@@ -2383,20 +3482,38 @@
       <c r="F61" s="2">
         <v>100</v>
       </c>
-      <c r="G61" s="2">
-        <v>15</v>
-      </c>
-      <c r="H61" s="2">
-        <v>13</v>
-      </c>
-      <c r="I61" s="2">
-        <v>50</v>
-      </c>
-      <c r="J61" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61" s="2">
+        <v>15</v>
+      </c>
+      <c r="N61" s="2">
+        <v>13</v>
+      </c>
+      <c r="O61" s="2">
+        <v>50</v>
+      </c>
+      <c r="P61" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" s="5">
         <v>7006</v>
       </c>
@@ -2415,20 +3532,38 @@
       <c r="F62" s="2">
         <v>100</v>
       </c>
-      <c r="G62" s="2">
-        <v>15</v>
-      </c>
-      <c r="H62" s="2">
-        <v>13</v>
-      </c>
-      <c r="I62" s="2">
-        <v>50</v>
-      </c>
-      <c r="J62" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62" s="2">
+        <v>15</v>
+      </c>
+      <c r="N62" s="2">
+        <v>13</v>
+      </c>
+      <c r="O62" s="2">
+        <v>50</v>
+      </c>
+      <c r="P62" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" s="5">
         <v>1719</v>
       </c>
@@ -2447,20 +3582,38 @@
       <c r="F63" s="2">
         <v>100</v>
       </c>
-      <c r="G63" s="2">
-        <v>15</v>
-      </c>
-      <c r="H63" s="2">
-        <v>13</v>
-      </c>
-      <c r="I63" s="2">
-        <v>50</v>
-      </c>
-      <c r="J63" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63" s="2">
+        <v>15</v>
+      </c>
+      <c r="N63" s="2">
+        <v>13</v>
+      </c>
+      <c r="O63" s="2">
+        <v>50</v>
+      </c>
+      <c r="P63" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64" s="5">
         <v>15019</v>
       </c>
@@ -2479,20 +3632,38 @@
       <c r="F64" s="2">
         <v>100</v>
       </c>
-      <c r="G64" s="2">
-        <v>15</v>
-      </c>
-      <c r="H64" s="2">
-        <v>13</v>
-      </c>
-      <c r="I64" s="2">
-        <v>50</v>
-      </c>
-      <c r="J64" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64" s="2">
+        <v>15</v>
+      </c>
+      <c r="N64" s="2">
+        <v>13</v>
+      </c>
+      <c r="O64" s="2">
+        <v>50</v>
+      </c>
+      <c r="P64" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65" s="5">
         <v>1383</v>
       </c>
@@ -2511,20 +3682,38 @@
       <c r="F65" s="2">
         <v>100</v>
       </c>
-      <c r="G65" s="2">
-        <v>15</v>
-      </c>
-      <c r="H65" s="2">
-        <v>13</v>
-      </c>
-      <c r="I65" s="2">
-        <v>50</v>
-      </c>
-      <c r="J65" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65" s="2">
+        <v>15</v>
+      </c>
+      <c r="N65" s="2">
+        <v>13</v>
+      </c>
+      <c r="O65" s="2">
+        <v>50</v>
+      </c>
+      <c r="P65" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66" s="5">
         <v>1858</v>
       </c>
@@ -2543,20 +3732,38 @@
       <c r="F66" s="2">
         <v>100</v>
       </c>
-      <c r="G66" s="2">
-        <v>0</v>
-      </c>
-      <c r="H66" s="2">
-        <v>100</v>
-      </c>
-      <c r="I66" s="2">
-        <v>50</v>
-      </c>
-      <c r="J66" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66" s="2">
+        <v>0</v>
+      </c>
+      <c r="N66" s="2">
+        <v>100</v>
+      </c>
+      <c r="O66" s="2">
+        <v>50</v>
+      </c>
+      <c r="P66" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67" s="5">
         <v>6268</v>
       </c>
@@ -2575,20 +3782,38 @@
       <c r="F67" s="2">
         <v>100</v>
       </c>
-      <c r="G67" s="2">
-        <v>0</v>
-      </c>
-      <c r="H67" s="2">
-        <v>100</v>
-      </c>
-      <c r="I67" s="2">
-        <v>50</v>
-      </c>
-      <c r="J67" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67" s="2">
+        <v>0</v>
+      </c>
+      <c r="N67" s="2">
+        <v>100</v>
+      </c>
+      <c r="O67" s="2">
+        <v>50</v>
+      </c>
+      <c r="P67" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68" s="5">
         <v>764</v>
       </c>
@@ -2607,20 +3832,38 @@
       <c r="F68" s="2">
         <v>100</v>
       </c>
-      <c r="G68" s="5">
-        <v>15</v>
-      </c>
-      <c r="H68" s="5">
-        <v>13</v>
-      </c>
-      <c r="I68" s="2">
-        <v>50</v>
-      </c>
-      <c r="J68" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68" s="5">
+        <v>15</v>
+      </c>
+      <c r="N68" s="5">
+        <v>13</v>
+      </c>
+      <c r="O68" s="2">
+        <v>50</v>
+      </c>
+      <c r="P68" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69" s="5">
         <v>6972</v>
       </c>
@@ -2639,20 +3882,38 @@
       <c r="F69" s="2">
         <v>100</v>
       </c>
-      <c r="G69" s="5">
-        <v>15</v>
-      </c>
-      <c r="H69" s="5">
-        <v>13</v>
-      </c>
-      <c r="I69" s="2">
-        <v>50</v>
-      </c>
-      <c r="J69" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69" s="5">
+        <v>15</v>
+      </c>
+      <c r="N69" s="5">
+        <v>13</v>
+      </c>
+      <c r="O69" s="2">
+        <v>50</v>
+      </c>
+      <c r="P69" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70" s="5">
         <v>15930</v>
       </c>
@@ -2671,20 +3932,38 @@
       <c r="F70" s="2">
         <v>100</v>
       </c>
-      <c r="G70" s="2">
-        <v>0</v>
-      </c>
-      <c r="H70" s="2">
-        <v>100</v>
-      </c>
-      <c r="I70" s="2">
-        <v>50</v>
-      </c>
-      <c r="J70" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70" s="2">
+        <v>0</v>
+      </c>
+      <c r="N70" s="2">
+        <v>100</v>
+      </c>
+      <c r="O70" s="2">
+        <v>50</v>
+      </c>
+      <c r="P70" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71" s="5">
         <v>5753</v>
       </c>
@@ -2703,20 +3982,38 @@
       <c r="F71" s="2">
         <v>100</v>
       </c>
-      <c r="G71" s="2">
-        <v>0</v>
-      </c>
-      <c r="H71" s="2">
-        <v>100</v>
-      </c>
-      <c r="I71" s="2">
-        <v>50</v>
-      </c>
-      <c r="J71" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71" s="2">
+        <v>0</v>
+      </c>
+      <c r="N71" s="2">
+        <v>100</v>
+      </c>
+      <c r="O71" s="2">
+        <v>50</v>
+      </c>
+      <c r="P71" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72" s="5">
         <v>38561</v>
       </c>
@@ -2735,20 +4032,38 @@
       <c r="F72" s="2">
         <v>100</v>
       </c>
-      <c r="G72" s="2">
-        <v>0</v>
-      </c>
-      <c r="H72" s="2">
-        <v>100</v>
-      </c>
-      <c r="I72" s="2">
-        <v>50</v>
-      </c>
-      <c r="J72" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72" s="2">
+        <v>0</v>
+      </c>
+      <c r="N72" s="2">
+        <v>100</v>
+      </c>
+      <c r="O72" s="2">
+        <v>50</v>
+      </c>
+      <c r="P72" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73" s="5">
         <v>20709</v>
       </c>
@@ -2767,20 +4082,38 @@
       <c r="F73" s="2">
         <v>100</v>
       </c>
-      <c r="G73" s="2">
-        <v>0</v>
-      </c>
-      <c r="H73" s="2">
-        <v>100</v>
-      </c>
-      <c r="I73" s="2">
-        <v>50</v>
-      </c>
-      <c r="J73" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73" s="2">
+        <v>0</v>
+      </c>
+      <c r="N73" s="2">
+        <v>100</v>
+      </c>
+      <c r="O73" s="2">
+        <v>50</v>
+      </c>
+      <c r="P73" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74" s="5">
         <v>10927</v>
       </c>
@@ -2799,20 +4132,38 @@
       <c r="F74" s="2">
         <v>100</v>
       </c>
-      <c r="G74" s="2">
-        <v>0</v>
-      </c>
-      <c r="H74" s="2">
-        <v>100</v>
-      </c>
-      <c r="I74" s="2">
-        <v>50</v>
-      </c>
-      <c r="J74" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74" s="2">
+        <v>0</v>
+      </c>
+      <c r="N74" s="2">
+        <v>100</v>
+      </c>
+      <c r="O74" s="2">
+        <v>50</v>
+      </c>
+      <c r="P74" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A75" s="5">
         <v>58072</v>
       </c>
@@ -2831,20 +4182,38 @@
       <c r="F75" s="2">
         <v>100</v>
       </c>
-      <c r="G75" s="2">
-        <v>15</v>
-      </c>
-      <c r="H75" s="2">
-        <v>13</v>
-      </c>
-      <c r="I75" s="2">
-        <v>50</v>
-      </c>
-      <c r="J75" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75" s="2">
+        <v>15</v>
+      </c>
+      <c r="N75" s="2">
+        <v>13</v>
+      </c>
+      <c r="O75" s="2">
+        <v>50</v>
+      </c>
+      <c r="P75" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A76" s="5">
         <v>22312</v>
       </c>
@@ -2863,20 +4232,38 @@
       <c r="F76" s="2">
         <v>100</v>
       </c>
-      <c r="G76" s="2">
-        <v>15</v>
-      </c>
-      <c r="H76" s="2">
-        <v>13</v>
-      </c>
-      <c r="I76" s="2">
-        <v>50</v>
-      </c>
-      <c r="J76" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76" s="2">
+        <v>15</v>
+      </c>
+      <c r="N76" s="2">
+        <v>13</v>
+      </c>
+      <c r="O76" s="2">
+        <v>50</v>
+      </c>
+      <c r="P76" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A77" s="5">
         <v>25591</v>
       </c>
@@ -2895,20 +4282,38 @@
       <c r="F77" s="2">
         <v>100</v>
       </c>
-      <c r="G77" s="2">
-        <v>15</v>
-      </c>
-      <c r="H77" s="2">
-        <v>13</v>
-      </c>
-      <c r="I77" s="2">
-        <v>50</v>
-      </c>
-      <c r="J77" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77" s="2">
+        <v>15</v>
+      </c>
+      <c r="N77" s="2">
+        <v>13</v>
+      </c>
+      <c r="O77" s="2">
+        <v>50</v>
+      </c>
+      <c r="P77" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A78" s="5">
         <v>52069</v>
       </c>
@@ -2927,20 +4332,38 @@
       <c r="F78" s="2">
         <v>100</v>
       </c>
-      <c r="G78" s="2">
-        <v>15</v>
-      </c>
-      <c r="H78" s="2">
-        <v>13</v>
-      </c>
-      <c r="I78" s="2">
-        <v>50</v>
-      </c>
-      <c r="J78" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78" s="2">
+        <v>15</v>
+      </c>
+      <c r="N78" s="2">
+        <v>13</v>
+      </c>
+      <c r="O78" s="2">
+        <v>50</v>
+      </c>
+      <c r="P78" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A79" s="5">
         <v>63820</v>
       </c>
@@ -2959,20 +4382,38 @@
       <c r="F79" s="2">
         <v>100</v>
       </c>
-      <c r="G79" s="2">
-        <v>15</v>
-      </c>
-      <c r="H79" s="2">
-        <v>13</v>
-      </c>
-      <c r="I79" s="2">
-        <v>50</v>
-      </c>
-      <c r="J79" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79" s="2">
+        <v>15</v>
+      </c>
+      <c r="N79" s="2">
+        <v>13</v>
+      </c>
+      <c r="O79" s="2">
+        <v>50</v>
+      </c>
+      <c r="P79" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A80" s="5">
         <v>55341</v>
       </c>
@@ -2991,20 +4432,38 @@
       <c r="F80" s="2">
         <v>100</v>
       </c>
-      <c r="G80" s="2">
-        <v>15</v>
-      </c>
-      <c r="H80" s="2">
-        <v>13</v>
-      </c>
-      <c r="I80" s="2">
-        <v>50</v>
-      </c>
-      <c r="J80" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80" s="2">
+        <v>15</v>
+      </c>
+      <c r="N80" s="2">
+        <v>13</v>
+      </c>
+      <c r="O80" s="2">
+        <v>50</v>
+      </c>
+      <c r="P80" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A81" s="5">
         <v>63094</v>
       </c>
@@ -3023,20 +4482,38 @@
       <c r="F81" s="2">
         <v>100</v>
       </c>
-      <c r="G81" s="2">
-        <v>15</v>
-      </c>
-      <c r="H81" s="2">
-        <v>13</v>
-      </c>
-      <c r="I81" s="2">
-        <v>50</v>
-      </c>
-      <c r="J81" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81" s="2">
+        <v>15</v>
+      </c>
+      <c r="N81" s="2">
+        <v>13</v>
+      </c>
+      <c r="O81" s="2">
+        <v>50</v>
+      </c>
+      <c r="P81" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A82" s="5">
         <v>59774</v>
       </c>
@@ -3055,20 +4532,38 @@
       <c r="F82" s="2">
         <v>100</v>
       </c>
-      <c r="G82" s="2">
-        <v>15</v>
-      </c>
-      <c r="H82" s="2">
-        <v>13</v>
-      </c>
-      <c r="I82" s="2">
-        <v>50</v>
-      </c>
-      <c r="J82" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82" s="2">
+        <v>15</v>
+      </c>
+      <c r="N82" s="2">
+        <v>13</v>
+      </c>
+      <c r="O82" s="2">
+        <v>50</v>
+      </c>
+      <c r="P82" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83" s="5">
         <v>33175</v>
       </c>
@@ -3087,20 +4582,38 @@
       <c r="F83" s="2">
         <v>100</v>
       </c>
-      <c r="G83" s="2">
-        <v>15</v>
-      </c>
-      <c r="H83" s="2">
-        <v>13</v>
-      </c>
-      <c r="I83" s="2">
-        <v>50</v>
-      </c>
-      <c r="J83" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83" s="2">
+        <v>15</v>
+      </c>
+      <c r="N83" s="2">
+        <v>13</v>
+      </c>
+      <c r="O83" s="2">
+        <v>50</v>
+      </c>
+      <c r="P83" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A84" s="5">
         <v>34695</v>
       </c>
@@ -3119,20 +4632,38 @@
       <c r="F84" s="2">
         <v>100</v>
       </c>
-      <c r="G84" s="2">
-        <v>15</v>
-      </c>
-      <c r="H84" s="2">
-        <v>13</v>
-      </c>
-      <c r="I84" s="2">
-        <v>50</v>
-      </c>
-      <c r="J84" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84" s="2">
+        <v>15</v>
+      </c>
+      <c r="N84" s="2">
+        <v>13</v>
+      </c>
+      <c r="O84" s="2">
+        <v>50</v>
+      </c>
+      <c r="P84" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A85" s="5">
         <v>29845</v>
       </c>
@@ -3151,20 +4682,38 @@
       <c r="F85" s="2">
         <v>100</v>
       </c>
-      <c r="G85" s="2">
-        <v>15</v>
-      </c>
-      <c r="H85" s="2">
-        <v>13</v>
-      </c>
-      <c r="I85" s="2">
-        <v>50</v>
-      </c>
-      <c r="J85" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85" s="2">
+        <v>15</v>
+      </c>
+      <c r="N85" s="2">
+        <v>13</v>
+      </c>
+      <c r="O85" s="2">
+        <v>50</v>
+      </c>
+      <c r="P85" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A86" s="5">
         <v>30868</v>
       </c>
@@ -3183,20 +4732,38 @@
       <c r="F86" s="2">
         <v>100</v>
       </c>
-      <c r="G86" s="2">
-        <v>15</v>
-      </c>
-      <c r="H86" s="2">
-        <v>13</v>
-      </c>
-      <c r="I86" s="2">
-        <v>50</v>
-      </c>
-      <c r="J86" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86" s="2">
+        <v>15</v>
+      </c>
+      <c r="N86" s="2">
+        <v>13</v>
+      </c>
+      <c r="O86" s="2">
+        <v>50</v>
+      </c>
+      <c r="P86" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A87" s="5">
         <v>8499</v>
       </c>
@@ -3215,20 +4782,38 @@
       <c r="F87" s="2">
         <v>100</v>
       </c>
-      <c r="G87" s="2">
-        <v>15</v>
-      </c>
-      <c r="H87" s="2">
-        <v>13</v>
-      </c>
-      <c r="I87" s="2">
-        <v>50</v>
-      </c>
-      <c r="J87" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87" s="2">
+        <v>15</v>
+      </c>
+      <c r="N87" s="2">
+        <v>13</v>
+      </c>
+      <c r="O87" s="2">
+        <v>50</v>
+      </c>
+      <c r="P87" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A88" s="5">
         <v>10006</v>
       </c>
@@ -3247,20 +4832,38 @@
       <c r="F88" s="2">
         <v>100</v>
       </c>
-      <c r="G88" s="2">
-        <v>0</v>
-      </c>
-      <c r="H88" s="2">
-        <v>100</v>
-      </c>
-      <c r="I88" s="2">
-        <v>50</v>
-      </c>
-      <c r="J88" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88" s="2">
+        <v>0</v>
+      </c>
+      <c r="N88" s="2">
+        <v>100</v>
+      </c>
+      <c r="O88" s="2">
+        <v>50</v>
+      </c>
+      <c r="P88" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A89" s="5">
         <v>4533</v>
       </c>
@@ -3279,20 +4882,38 @@
       <c r="F89" s="2">
         <v>100</v>
       </c>
-      <c r="G89" s="2">
-        <v>0</v>
-      </c>
-      <c r="H89" s="2">
-        <v>100</v>
-      </c>
-      <c r="I89" s="2">
-        <v>50</v>
-      </c>
-      <c r="J89" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89" s="2">
+        <v>0</v>
+      </c>
+      <c r="N89" s="2">
+        <v>100</v>
+      </c>
+      <c r="O89" s="2">
+        <v>50</v>
+      </c>
+      <c r="P89" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A90" s="5">
         <v>1879</v>
       </c>
@@ -3311,20 +4932,38 @@
       <c r="F90" s="2">
         <v>100</v>
       </c>
-      <c r="G90" s="2">
-        <v>0</v>
-      </c>
-      <c r="H90" s="2">
-        <v>100</v>
-      </c>
-      <c r="I90" s="2">
-        <v>50</v>
-      </c>
-      <c r="J90" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90" s="2">
+        <v>0</v>
+      </c>
+      <c r="N90" s="2">
+        <v>100</v>
+      </c>
+      <c r="O90" s="2">
+        <v>50</v>
+      </c>
+      <c r="P90" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A91" s="5">
         <v>19682</v>
       </c>
@@ -3343,20 +4982,38 @@
       <c r="F91" s="2">
         <v>100</v>
       </c>
-      <c r="G91" s="2">
-        <v>0</v>
-      </c>
-      <c r="H91" s="2">
-        <v>100</v>
-      </c>
-      <c r="I91" s="2">
-        <v>50</v>
-      </c>
-      <c r="J91" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91" s="2">
+        <v>0</v>
+      </c>
+      <c r="N91" s="2">
+        <v>100</v>
+      </c>
+      <c r="O91" s="2">
+        <v>50</v>
+      </c>
+      <c r="P91" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A92" s="5">
         <v>21219</v>
       </c>
@@ -3375,20 +5032,38 @@
       <c r="F92" s="2">
         <v>100</v>
       </c>
-      <c r="G92" s="2">
-        <v>0</v>
-      </c>
-      <c r="H92" s="2">
-        <v>100</v>
-      </c>
-      <c r="I92" s="2">
-        <v>50</v>
-      </c>
-      <c r="J92" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+      <c r="M92" s="2">
+        <v>0</v>
+      </c>
+      <c r="N92" s="2">
+        <v>100</v>
+      </c>
+      <c r="O92" s="2">
+        <v>50</v>
+      </c>
+      <c r="P92" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A93" s="5">
         <v>279228</v>
       </c>
@@ -3407,20 +5082,38 @@
       <c r="F93" s="2">
         <v>100</v>
       </c>
-      <c r="G93" s="2">
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93" s="2">
         <v>10</v>
       </c>
-      <c r="H93" s="2">
-        <v>13</v>
-      </c>
-      <c r="I93" s="2">
-        <v>50</v>
-      </c>
-      <c r="J93" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N93" s="2">
+        <v>13</v>
+      </c>
+      <c r="O93" s="2">
+        <v>50</v>
+      </c>
+      <c r="P93" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A94" s="5">
         <v>299792</v>
       </c>
@@ -3439,20 +5132,38 @@
       <c r="F94" s="2">
         <v>100</v>
       </c>
-      <c r="G94" s="2">
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+      <c r="M94" s="2">
         <v>10</v>
       </c>
-      <c r="H94" s="2">
-        <v>13</v>
-      </c>
-      <c r="I94" s="2">
-        <v>50</v>
-      </c>
-      <c r="J94" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N94" s="2">
+        <v>13</v>
+      </c>
+      <c r="O94" s="2">
+        <v>50</v>
+      </c>
+      <c r="P94" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A95" s="5">
         <v>665262</v>
       </c>
@@ -3471,20 +5182,38 @@
       <c r="F95" s="2">
         <v>100</v>
       </c>
-      <c r="G95" s="2">
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+      <c r="M95" s="2">
         <v>10</v>
       </c>
-      <c r="H95" s="2">
-        <v>13</v>
-      </c>
-      <c r="I95" s="2">
-        <v>50</v>
-      </c>
-      <c r="J95" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N95" s="2">
+        <v>13</v>
+      </c>
+      <c r="O95" s="2">
+        <v>50</v>
+      </c>
+      <c r="P95" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A96" s="5">
         <v>572385</v>
       </c>
@@ -3503,20 +5232,38 @@
       <c r="F96" s="2">
         <v>100</v>
       </c>
-      <c r="G96" s="2">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96" s="2">
         <v>2</v>
       </c>
-      <c r="H96" s="2">
-        <v>13</v>
-      </c>
-      <c r="I96" s="2">
-        <v>50</v>
-      </c>
-      <c r="J96" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N96" s="2">
+        <v>13</v>
+      </c>
+      <c r="O96" s="2">
+        <v>50</v>
+      </c>
+      <c r="P96" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A97" s="5">
         <v>833641</v>
       </c>
@@ -3535,20 +5282,38 @@
       <c r="F97" s="2">
         <v>100</v>
       </c>
-      <c r="G97" s="2">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="M97" s="2">
         <v>2</v>
       </c>
-      <c r="H97" s="2">
-        <v>13</v>
-      </c>
-      <c r="I97" s="2">
-        <v>50</v>
-      </c>
-      <c r="J97" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N97" s="2">
+        <v>13</v>
+      </c>
+      <c r="O97" s="2">
+        <v>50</v>
+      </c>
+      <c r="P97" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A98" s="5">
         <v>679393</v>
       </c>
@@ -3567,20 +5332,38 @@
       <c r="F98" s="2">
         <v>100</v>
       </c>
-      <c r="G98" s="2">
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+      <c r="M98" s="2">
         <v>2</v>
       </c>
-      <c r="H98" s="2">
-        <v>13</v>
-      </c>
-      <c r="I98" s="2">
-        <v>50</v>
-      </c>
-      <c r="J98" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N98" s="2">
+        <v>13</v>
+      </c>
+      <c r="O98" s="2">
+        <v>50</v>
+      </c>
+      <c r="P98" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A99" s="5">
         <v>389253</v>
       </c>
@@ -3599,20 +5382,38 @@
       <c r="F99" s="2">
         <v>100</v>
       </c>
-      <c r="G99" s="2">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="M99" s="2">
         <v>2</v>
       </c>
-      <c r="H99" s="2">
-        <v>13</v>
-      </c>
-      <c r="I99" s="2">
-        <v>50</v>
-      </c>
-      <c r="J99" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N99" s="2">
+        <v>13</v>
+      </c>
+      <c r="O99" s="2">
+        <v>50</v>
+      </c>
+      <c r="P99" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A100" s="5">
         <v>542235</v>
       </c>
@@ -3631,20 +5432,38 @@
       <c r="F100" s="2">
         <v>100</v>
       </c>
-      <c r="G100" s="2">
-        <v>0</v>
-      </c>
-      <c r="H100" s="2">
-        <v>100</v>
-      </c>
-      <c r="I100" s="2">
-        <v>50</v>
-      </c>
-      <c r="J100" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100" s="2">
+        <v>0</v>
+      </c>
+      <c r="N100" s="2">
+        <v>100</v>
+      </c>
+      <c r="O100" s="2">
+        <v>50</v>
+      </c>
+      <c r="P100" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A101" s="5">
         <v>216447</v>
       </c>
@@ -3663,20 +5482,38 @@
       <c r="F101" s="2">
         <v>100</v>
       </c>
-      <c r="G101" s="2">
-        <v>0</v>
-      </c>
-      <c r="H101" s="2">
-        <v>100</v>
-      </c>
-      <c r="I101" s="2">
-        <v>50</v>
-      </c>
-      <c r="J101" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+      <c r="M101" s="2">
+        <v>0</v>
+      </c>
+      <c r="N101" s="2">
+        <v>100</v>
+      </c>
+      <c r="O101" s="2">
+        <v>50</v>
+      </c>
+      <c r="P101" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A102" s="5">
         <v>176526</v>
       </c>
@@ -3695,20 +5532,38 @@
       <c r="F102" s="2">
         <v>100</v>
       </c>
-      <c r="G102" s="2">
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102" s="2">
         <v>10</v>
       </c>
-      <c r="H102" s="2">
-        <v>13</v>
-      </c>
-      <c r="I102" s="2">
-        <v>50</v>
-      </c>
-      <c r="J102" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N102" s="2">
+        <v>13</v>
+      </c>
+      <c r="O102" s="2">
+        <v>50</v>
+      </c>
+      <c r="P102" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A103" s="5">
         <v>94798</v>
       </c>
@@ -3727,20 +5582,38 @@
       <c r="F103" s="2">
         <v>100</v>
       </c>
-      <c r="G103" s="2">
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103" s="2">
         <v>10</v>
       </c>
-      <c r="H103" s="2">
-        <v>13</v>
-      </c>
-      <c r="I103" s="2">
-        <v>50</v>
-      </c>
-      <c r="J103" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N103" s="2">
+        <v>13</v>
+      </c>
+      <c r="O103" s="2">
+        <v>50</v>
+      </c>
+      <c r="P103" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A104" s="5">
         <v>168935</v>
       </c>
@@ -3759,20 +5632,38 @@
       <c r="F104" s="2">
         <v>100</v>
       </c>
-      <c r="G104" s="2">
-        <v>15</v>
-      </c>
-      <c r="H104" s="2">
-        <v>13</v>
-      </c>
-      <c r="I104" s="2">
-        <v>50</v>
-      </c>
-      <c r="J104" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104" s="2">
+        <v>15</v>
+      </c>
+      <c r="N104" s="2">
+        <v>13</v>
+      </c>
+      <c r="O104" s="2">
+        <v>50</v>
+      </c>
+      <c r="P104" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A105" s="5">
         <v>17369</v>
       </c>
@@ -3791,20 +5682,38 @@
       <c r="F105" s="2">
         <v>100</v>
       </c>
-      <c r="G105" s="2">
-        <v>15</v>
-      </c>
-      <c r="H105" s="2">
-        <v>13</v>
-      </c>
-      <c r="I105" s="2">
-        <v>50</v>
-      </c>
-      <c r="J105" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+      <c r="L105">
+        <v>0</v>
+      </c>
+      <c r="M105" s="2">
+        <v>15</v>
+      </c>
+      <c r="N105" s="2">
+        <v>13</v>
+      </c>
+      <c r="O105" s="2">
+        <v>50</v>
+      </c>
+      <c r="P105" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A106" s="5">
         <v>2631</v>
       </c>
@@ -3823,20 +5732,38 @@
       <c r="F106" s="2">
         <v>100</v>
       </c>
-      <c r="G106" s="2">
-        <v>15</v>
-      </c>
-      <c r="H106" s="2">
-        <v>13</v>
-      </c>
-      <c r="I106" s="2">
-        <v>50</v>
-      </c>
-      <c r="J106" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
+      </c>
+      <c r="L106">
+        <v>0</v>
+      </c>
+      <c r="M106" s="2">
+        <v>15</v>
+      </c>
+      <c r="N106" s="2">
+        <v>13</v>
+      </c>
+      <c r="O106" s="2">
+        <v>50</v>
+      </c>
+      <c r="P106" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A107" s="5">
         <v>5644</v>
       </c>
@@ -3855,20 +5782,38 @@
       <c r="F107" s="2">
         <v>100</v>
       </c>
-      <c r="G107" s="2">
-        <v>15</v>
-      </c>
-      <c r="H107" s="2">
-        <v>13</v>
-      </c>
-      <c r="I107" s="2">
-        <v>50</v>
-      </c>
-      <c r="J107" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+      <c r="M107" s="2">
+        <v>15</v>
+      </c>
+      <c r="N107" s="2">
+        <v>13</v>
+      </c>
+      <c r="O107" s="2">
+        <v>50</v>
+      </c>
+      <c r="P107" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A108" s="5">
         <v>165879</v>
       </c>
@@ -3887,20 +5832,38 @@
       <c r="F108" s="2">
         <v>100</v>
       </c>
-      <c r="G108" s="2">
-        <v>0</v>
-      </c>
-      <c r="H108" s="2">
-        <v>100</v>
-      </c>
-      <c r="I108" s="2">
-        <v>30</v>
-      </c>
-      <c r="J108" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+      <c r="M108" s="2">
+        <v>0</v>
+      </c>
+      <c r="N108" s="2">
+        <v>100</v>
+      </c>
+      <c r="O108" s="2">
+        <v>30</v>
+      </c>
+      <c r="P108" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A109" s="5">
         <v>121112</v>
       </c>
@@ -3919,20 +5882,38 @@
       <c r="F109" s="2">
         <v>100</v>
       </c>
-      <c r="G109" s="2">
-        <v>0</v>
-      </c>
-      <c r="H109" s="2">
-        <v>100</v>
-      </c>
-      <c r="I109" s="2">
-        <v>30</v>
-      </c>
-      <c r="J109" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
+      <c r="L109">
+        <v>0</v>
+      </c>
+      <c r="M109" s="2">
+        <v>0</v>
+      </c>
+      <c r="N109" s="2">
+        <v>100</v>
+      </c>
+      <c r="O109" s="2">
+        <v>30</v>
+      </c>
+      <c r="P109" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A110" s="5">
         <v>325761</v>
       </c>
@@ -3951,20 +5932,38 @@
       <c r="F110" s="2">
         <v>100</v>
       </c>
-      <c r="G110" s="2">
-        <v>0</v>
-      </c>
-      <c r="H110" s="2">
-        <v>100</v>
-      </c>
-      <c r="I110" s="2">
-        <v>30</v>
-      </c>
-      <c r="J110" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
+      <c r="M110" s="2">
+        <v>0</v>
+      </c>
+      <c r="N110" s="2">
+        <v>100</v>
+      </c>
+      <c r="O110" s="2">
+        <v>30</v>
+      </c>
+      <c r="P110" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A111" s="5">
         <v>328834</v>
       </c>
@@ -3983,20 +5982,38 @@
       <c r="F111" s="2">
         <v>100</v>
       </c>
-      <c r="G111" s="2">
-        <v>0</v>
-      </c>
-      <c r="H111" s="2">
-        <v>100</v>
-      </c>
-      <c r="I111" s="2">
-        <v>30</v>
-      </c>
-      <c r="J111" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>0</v>
+      </c>
+      <c r="L111">
+        <v>0</v>
+      </c>
+      <c r="M111" s="2">
+        <v>0</v>
+      </c>
+      <c r="N111" s="2">
+        <v>100</v>
+      </c>
+      <c r="O111" s="2">
+        <v>30</v>
+      </c>
+      <c r="P111" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A112" s="5">
         <v>392265</v>
       </c>
@@ -4015,20 +6032,38 @@
       <c r="F112" s="2">
         <v>100</v>
       </c>
-      <c r="G112" s="2">
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <v>0</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+      <c r="M112" s="2">
         <v>3</v>
       </c>
-      <c r="H112" s="2">
-        <v>15</v>
-      </c>
-      <c r="I112" s="2">
-        <v>30</v>
-      </c>
-      <c r="J112" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N112" s="2">
+        <v>15</v>
+      </c>
+      <c r="O112" s="2">
+        <v>30</v>
+      </c>
+      <c r="P112" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A113" s="5">
         <v>281796</v>
       </c>
@@ -4047,20 +6082,38 @@
       <c r="F113" s="2">
         <v>100</v>
       </c>
-      <c r="G113" s="2">
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>0</v>
+      </c>
+      <c r="L113">
+        <v>0</v>
+      </c>
+      <c r="M113" s="2">
         <v>3</v>
       </c>
-      <c r="H113" s="2">
-        <v>15</v>
-      </c>
-      <c r="I113" s="2">
-        <v>30</v>
-      </c>
-      <c r="J113" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N113" s="2">
+        <v>15</v>
+      </c>
+      <c r="O113" s="2">
+        <v>30</v>
+      </c>
+      <c r="P113" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A114" s="5">
         <v>310511</v>
       </c>
@@ -4079,20 +6132,38 @@
       <c r="F114" s="2">
         <v>100</v>
       </c>
-      <c r="G114" s="2">
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>0</v>
+      </c>
+      <c r="L114">
+        <v>0</v>
+      </c>
+      <c r="M114" s="2">
         <v>3</v>
       </c>
-      <c r="H114" s="2">
-        <v>15</v>
-      </c>
-      <c r="I114" s="2">
-        <v>30</v>
-      </c>
-      <c r="J114" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N114" s="2">
+        <v>15</v>
+      </c>
+      <c r="O114" s="2">
+        <v>30</v>
+      </c>
+      <c r="P114" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A115" s="5">
         <v>570649</v>
       </c>
@@ -4111,20 +6182,38 @@
       <c r="F115" s="2">
         <v>100</v>
       </c>
-      <c r="G115" s="2">
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+      <c r="M115" s="2">
         <v>3</v>
       </c>
-      <c r="H115" s="2">
-        <v>15</v>
-      </c>
-      <c r="I115" s="2">
-        <v>30</v>
-      </c>
-      <c r="J115" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N115" s="2">
+        <v>15</v>
+      </c>
+      <c r="O115" s="2">
+        <v>30</v>
+      </c>
+      <c r="P115" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A116" s="5">
         <v>638666</v>
       </c>
@@ -4143,20 +6232,38 @@
       <c r="F116" s="2">
         <v>100</v>
       </c>
-      <c r="G116" s="2">
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <v>0</v>
+      </c>
+      <c r="L116">
+        <v>0</v>
+      </c>
+      <c r="M116" s="2">
         <v>3</v>
       </c>
-      <c r="H116" s="2">
-        <v>15</v>
-      </c>
-      <c r="I116" s="2">
-        <v>30</v>
-      </c>
-      <c r="J116" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N116" s="2">
+        <v>15</v>
+      </c>
+      <c r="O116" s="2">
+        <v>30</v>
+      </c>
+      <c r="P116" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A117" s="5">
         <v>412478</v>
       </c>
@@ -4175,20 +6282,38 @@
       <c r="F117" s="2">
         <v>100</v>
       </c>
-      <c r="G117" s="2">
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <v>0</v>
+      </c>
+      <c r="L117">
+        <v>0</v>
+      </c>
+      <c r="M117" s="2">
         <v>7</v>
       </c>
-      <c r="H117" s="2">
-        <v>15</v>
-      </c>
-      <c r="I117" s="2">
-        <v>30</v>
-      </c>
-      <c r="J117" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N117" s="2">
+        <v>15</v>
+      </c>
+      <c r="O117" s="2">
+        <v>30</v>
+      </c>
+      <c r="P117" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A118" s="5">
         <v>619090</v>
       </c>
@@ -4207,20 +6332,38 @@
       <c r="F118" s="2">
         <v>100</v>
       </c>
-      <c r="G118" s="2">
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+      <c r="M118" s="2">
         <v>7</v>
       </c>
-      <c r="H118" s="2">
-        <v>15</v>
-      </c>
-      <c r="I118" s="2">
-        <v>30</v>
-      </c>
-      <c r="J118" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N118" s="2">
+        <v>15</v>
+      </c>
+      <c r="O118" s="2">
+        <v>30</v>
+      </c>
+      <c r="P118" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A119" s="5">
         <v>199388</v>
       </c>
@@ -4239,20 +6382,38 @@
       <c r="F119" s="2">
         <v>100</v>
       </c>
-      <c r="G119" s="2">
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+      <c r="L119">
+        <v>0</v>
+      </c>
+      <c r="M119" s="2">
         <v>7</v>
       </c>
-      <c r="H119" s="2">
-        <v>15</v>
-      </c>
-      <c r="I119" s="2">
-        <v>30</v>
-      </c>
-      <c r="J119" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N119" s="2">
+        <v>15</v>
+      </c>
+      <c r="O119" s="2">
+        <v>30</v>
+      </c>
+      <c r="P119" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A120" s="5">
         <v>113273</v>
       </c>
@@ -4271,20 +6432,38 @@
       <c r="F120" s="2">
         <v>100</v>
       </c>
-      <c r="G120" s="2">
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+      <c r="M120" s="2">
         <v>7</v>
       </c>
-      <c r="H120" s="2">
-        <v>15</v>
-      </c>
-      <c r="I120" s="2">
-        <v>30</v>
-      </c>
-      <c r="J120" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N120" s="2">
+        <v>15</v>
+      </c>
+      <c r="O120" s="2">
+        <v>30</v>
+      </c>
+      <c r="P120" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A121" s="5">
         <v>175786</v>
       </c>
@@ -4303,20 +6482,38 @@
       <c r="F121" s="2">
         <v>100</v>
       </c>
-      <c r="G121" s="2">
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+      <c r="M121" s="2">
         <v>7</v>
       </c>
-      <c r="H121" s="2">
-        <v>15</v>
-      </c>
-      <c r="I121" s="2">
-        <v>30</v>
-      </c>
-      <c r="J121" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N121" s="2">
+        <v>15</v>
+      </c>
+      <c r="O121" s="2">
+        <v>30</v>
+      </c>
+      <c r="P121" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A122" s="5">
         <v>86887</v>
       </c>
@@ -4335,20 +6532,38 @@
       <c r="F122" s="2">
         <v>100</v>
       </c>
-      <c r="G122" s="2">
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
+      <c r="M122" s="2">
         <v>7</v>
       </c>
-      <c r="H122" s="2">
-        <v>15</v>
-      </c>
-      <c r="I122" s="2">
-        <v>30</v>
-      </c>
-      <c r="J122" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N122" s="2">
+        <v>15</v>
+      </c>
+      <c r="O122" s="2">
+        <v>30</v>
+      </c>
+      <c r="P122" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A123" s="5">
         <v>6204</v>
       </c>
@@ -4367,20 +6582,38 @@
       <c r="F123" s="2">
         <v>100</v>
       </c>
-      <c r="G123" s="2">
+      <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
+      <c r="L123">
+        <v>0</v>
+      </c>
+      <c r="M123" s="2">
         <v>7</v>
       </c>
-      <c r="H123" s="2">
-        <v>15</v>
-      </c>
-      <c r="I123" s="2">
-        <v>30</v>
-      </c>
-      <c r="J123" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N123" s="2">
+        <v>15</v>
+      </c>
+      <c r="O123" s="2">
+        <v>30</v>
+      </c>
+      <c r="P123" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A124" s="5">
         <v>2506</v>
       </c>
@@ -4399,20 +6632,38 @@
       <c r="F124" s="2">
         <v>100</v>
       </c>
-      <c r="G124" s="2">
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+      <c r="L124">
+        <v>0</v>
+      </c>
+      <c r="M124" s="2">
         <v>7</v>
       </c>
-      <c r="H124" s="2">
-        <v>15</v>
-      </c>
-      <c r="I124" s="2">
-        <v>30</v>
-      </c>
-      <c r="J124" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N124" s="2">
+        <v>15</v>
+      </c>
+      <c r="O124" s="2">
+        <v>30</v>
+      </c>
+      <c r="P124" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A125" s="5">
         <v>4915</v>
       </c>
@@ -4431,20 +6682,38 @@
       <c r="F125" s="2">
         <v>100</v>
       </c>
-      <c r="G125" s="2">
-        <v>0</v>
-      </c>
-      <c r="H125" s="2">
-        <v>100</v>
-      </c>
-      <c r="I125" s="2">
-        <v>30</v>
-      </c>
-      <c r="J125" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>0</v>
+      </c>
+      <c r="L125">
+        <v>0</v>
+      </c>
+      <c r="M125" s="2">
+        <v>0</v>
+      </c>
+      <c r="N125" s="2">
+        <v>100</v>
+      </c>
+      <c r="O125" s="2">
+        <v>30</v>
+      </c>
+      <c r="P125" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A126" s="5">
         <v>7010</v>
       </c>
@@ -4463,20 +6732,38 @@
       <c r="F126" s="2">
         <v>100</v>
       </c>
-      <c r="G126" s="2">
-        <v>0</v>
-      </c>
-      <c r="H126" s="2">
-        <v>100</v>
-      </c>
-      <c r="I126" s="2">
-        <v>30</v>
-      </c>
-      <c r="J126" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G126">
+        <v>0</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
+      </c>
+      <c r="L126">
+        <v>0</v>
+      </c>
+      <c r="M126" s="2">
+        <v>0</v>
+      </c>
+      <c r="N126" s="2">
+        <v>100</v>
+      </c>
+      <c r="O126" s="2">
+        <v>30</v>
+      </c>
+      <c r="P126" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A127" s="5">
         <v>16219</v>
       </c>
@@ -4495,20 +6782,38 @@
       <c r="F127" s="2">
         <v>100</v>
       </c>
-      <c r="G127" s="2">
-        <v>0</v>
-      </c>
-      <c r="H127" s="2">
-        <v>100</v>
-      </c>
-      <c r="I127" s="2">
-        <v>30</v>
-      </c>
-      <c r="J127" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G127">
+        <v>0</v>
+      </c>
+      <c r="H127">
+        <v>0</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>0</v>
+      </c>
+      <c r="L127">
+        <v>0</v>
+      </c>
+      <c r="M127" s="2">
+        <v>0</v>
+      </c>
+      <c r="N127" s="2">
+        <v>100</v>
+      </c>
+      <c r="O127" s="2">
+        <v>30</v>
+      </c>
+      <c r="P127" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A128" s="5">
         <v>37314</v>
       </c>
@@ -4527,20 +6832,38 @@
       <c r="F128" s="2">
         <v>100</v>
       </c>
-      <c r="G128" s="2">
-        <v>0</v>
-      </c>
-      <c r="H128" s="2">
-        <v>100</v>
-      </c>
-      <c r="I128" s="2">
-        <v>30</v>
-      </c>
-      <c r="J128" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G128">
+        <v>0</v>
+      </c>
+      <c r="H128">
+        <v>0</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128">
+        <v>0</v>
+      </c>
+      <c r="L128">
+        <v>0</v>
+      </c>
+      <c r="M128" s="2">
+        <v>0</v>
+      </c>
+      <c r="N128" s="2">
+        <v>100</v>
+      </c>
+      <c r="O128" s="2">
+        <v>30</v>
+      </c>
+      <c r="P128" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A129" s="5">
         <v>90794</v>
       </c>
@@ -4559,20 +6882,38 @@
       <c r="F129" s="2">
         <v>100</v>
       </c>
-      <c r="G129" s="2">
-        <v>0</v>
-      </c>
-      <c r="H129" s="2">
-        <v>100</v>
-      </c>
-      <c r="I129" s="2">
-        <v>30</v>
-      </c>
-      <c r="J129" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G129">
+        <v>0</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>0</v>
+      </c>
+      <c r="L129">
+        <v>0</v>
+      </c>
+      <c r="M129" s="2">
+        <v>0</v>
+      </c>
+      <c r="N129" s="2">
+        <v>100</v>
+      </c>
+      <c r="O129" s="2">
+        <v>30</v>
+      </c>
+      <c r="P129" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A130" s="5">
         <v>108045</v>
       </c>
@@ -4591,20 +6932,38 @@
       <c r="F130" s="2">
         <v>100</v>
       </c>
-      <c r="G130" s="2">
+      <c r="G130">
+        <v>0</v>
+      </c>
+      <c r="H130">
+        <v>0</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="K130">
+        <v>0</v>
+      </c>
+      <c r="L130">
+        <v>0</v>
+      </c>
+      <c r="M130" s="2">
         <v>3</v>
       </c>
-      <c r="H130" s="2">
-        <v>15</v>
-      </c>
-      <c r="I130" s="2">
-        <v>30</v>
-      </c>
-      <c r="J130" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N130" s="2">
+        <v>15</v>
+      </c>
+      <c r="O130" s="2">
+        <v>30</v>
+      </c>
+      <c r="P130" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A131" s="5">
         <v>116726</v>
       </c>
@@ -4623,20 +6982,38 @@
       <c r="F131" s="2">
         <v>100</v>
       </c>
-      <c r="G131" s="2">
+      <c r="G131">
+        <v>0</v>
+      </c>
+      <c r="H131">
+        <v>0</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+      <c r="L131">
+        <v>0</v>
+      </c>
+      <c r="M131" s="2">
         <v>3</v>
       </c>
-      <c r="H131" s="2">
-        <v>15</v>
-      </c>
-      <c r="I131" s="2">
-        <v>30</v>
-      </c>
-      <c r="J131" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N131" s="2">
+        <v>15</v>
+      </c>
+      <c r="O131" s="2">
+        <v>30</v>
+      </c>
+      <c r="P131" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A132" s="5">
         <v>193190</v>
       </c>
@@ -4655,20 +7032,38 @@
       <c r="F132" s="2">
         <v>100</v>
       </c>
-      <c r="G132" s="2">
+      <c r="G132">
+        <v>0</v>
+      </c>
+      <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>0</v>
+      </c>
+      <c r="L132">
+        <v>0</v>
+      </c>
+      <c r="M132" s="2">
         <v>3</v>
       </c>
-      <c r="H132" s="2">
-        <v>15</v>
-      </c>
-      <c r="I132" s="2">
-        <v>30</v>
-      </c>
-      <c r="J132" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N132" s="2">
+        <v>15</v>
+      </c>
+      <c r="O132" s="2">
+        <v>30</v>
+      </c>
+      <c r="P132" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A133" s="5">
         <v>167766</v>
       </c>
@@ -4687,20 +7082,38 @@
       <c r="F133" s="2">
         <v>100</v>
       </c>
-      <c r="G133" s="2">
+      <c r="G133">
+        <v>0</v>
+      </c>
+      <c r="H133">
+        <v>0</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+      <c r="L133">
+        <v>0</v>
+      </c>
+      <c r="M133" s="2">
         <v>3</v>
       </c>
-      <c r="H133" s="2">
-        <v>15</v>
-      </c>
-      <c r="I133" s="2">
-        <v>30</v>
-      </c>
-      <c r="J133" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N133" s="2">
+        <v>15</v>
+      </c>
+      <c r="O133" s="2">
+        <v>30</v>
+      </c>
+      <c r="P133" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A134" s="5">
         <v>117051</v>
       </c>
@@ -4719,20 +7132,38 @@
       <c r="F134" s="2">
         <v>100</v>
       </c>
-      <c r="G134" s="2">
+      <c r="G134">
+        <v>0</v>
+      </c>
+      <c r="H134">
+        <v>0</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>0</v>
+      </c>
+      <c r="L134">
+        <v>0</v>
+      </c>
+      <c r="M134" s="2">
         <v>3</v>
       </c>
-      <c r="H134" s="2">
-        <v>15</v>
-      </c>
-      <c r="I134" s="2">
-        <v>30</v>
-      </c>
-      <c r="J134" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N134" s="2">
+        <v>15</v>
+      </c>
+      <c r="O134" s="2">
+        <v>30</v>
+      </c>
+      <c r="P134" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A135" s="5">
         <v>146865</v>
       </c>
@@ -4751,20 +7182,38 @@
       <c r="F135" s="2">
         <v>100</v>
       </c>
-      <c r="G135" s="2">
+      <c r="G135">
+        <v>0</v>
+      </c>
+      <c r="H135">
+        <v>0</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
+      <c r="L135">
+        <v>0</v>
+      </c>
+      <c r="M135" s="2">
         <v>7</v>
       </c>
-      <c r="H135" s="2">
-        <v>15</v>
-      </c>
-      <c r="I135" s="2">
-        <v>30</v>
-      </c>
-      <c r="J135" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N135" s="2">
+        <v>15</v>
+      </c>
+      <c r="O135" s="2">
+        <v>30</v>
+      </c>
+      <c r="P135" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A136" s="5">
         <v>171179</v>
       </c>
@@ -4783,20 +7232,38 @@
       <c r="F136" s="2">
         <v>100</v>
       </c>
-      <c r="G136" s="2">
+      <c r="G136">
+        <v>0</v>
+      </c>
+      <c r="H136">
+        <v>0</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+      <c r="K136">
+        <v>0</v>
+      </c>
+      <c r="L136">
+        <v>0</v>
+      </c>
+      <c r="M136" s="2">
         <v>7</v>
       </c>
-      <c r="H136" s="2">
-        <v>15</v>
-      </c>
-      <c r="I136" s="2">
-        <v>30</v>
-      </c>
-      <c r="J136" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N136" s="2">
+        <v>15</v>
+      </c>
+      <c r="O136" s="2">
+        <v>30</v>
+      </c>
+      <c r="P136" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A137" s="5">
         <v>104634</v>
       </c>
@@ -4815,20 +7282,38 @@
       <c r="F137" s="2">
         <v>100</v>
       </c>
-      <c r="G137" s="2">
+      <c r="G137">
+        <v>0</v>
+      </c>
+      <c r="H137">
+        <v>0</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <v>0</v>
+      </c>
+      <c r="L137">
+        <v>0</v>
+      </c>
+      <c r="M137" s="2">
         <v>7</v>
       </c>
-      <c r="H137" s="2">
-        <v>15</v>
-      </c>
-      <c r="I137" s="2">
-        <v>30</v>
-      </c>
-      <c r="J137" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N137" s="2">
+        <v>15</v>
+      </c>
+      <c r="O137" s="2">
+        <v>30</v>
+      </c>
+      <c r="P137" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A138" s="5">
         <v>52081</v>
       </c>
@@ -4847,20 +7332,38 @@
       <c r="F138" s="2">
         <v>100</v>
       </c>
-      <c r="G138" s="2">
+      <c r="G138">
+        <v>0</v>
+      </c>
+      <c r="H138">
+        <v>0</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>0</v>
+      </c>
+      <c r="L138">
+        <v>0</v>
+      </c>
+      <c r="M138" s="2">
         <v>7</v>
       </c>
-      <c r="H138" s="2">
-        <v>15</v>
-      </c>
-      <c r="I138" s="2">
-        <v>30</v>
-      </c>
-      <c r="J138" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N138" s="2">
+        <v>15</v>
+      </c>
+      <c r="O138" s="2">
+        <v>30</v>
+      </c>
+      <c r="P138" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A139" s="5">
         <v>38181</v>
       </c>
@@ -4879,20 +7382,38 @@
       <c r="F139" s="2">
         <v>100</v>
       </c>
-      <c r="G139" s="2">
+      <c r="G139">
+        <v>0</v>
+      </c>
+      <c r="H139">
+        <v>0</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>0</v>
+      </c>
+      <c r="L139">
+        <v>0</v>
+      </c>
+      <c r="M139" s="2">
         <v>7</v>
       </c>
-      <c r="H139" s="2">
-        <v>15</v>
-      </c>
-      <c r="I139" s="2">
-        <v>30</v>
-      </c>
-      <c r="J139" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N139" s="2">
+        <v>15</v>
+      </c>
+      <c r="O139" s="2">
+        <v>30</v>
+      </c>
+      <c r="P139" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A140" s="5">
         <v>10098</v>
       </c>
@@ -4911,20 +7432,38 @@
       <c r="F140" s="2">
         <v>100</v>
       </c>
-      <c r="G140" s="2">
-        <v>0</v>
-      </c>
-      <c r="H140" s="2">
-        <v>100</v>
-      </c>
-      <c r="I140" s="2">
-        <v>30</v>
-      </c>
-      <c r="J140" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G140">
+        <v>0</v>
+      </c>
+      <c r="H140">
+        <v>0</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>0</v>
+      </c>
+      <c r="L140">
+        <v>0</v>
+      </c>
+      <c r="M140" s="2">
+        <v>0</v>
+      </c>
+      <c r="N140" s="2">
+        <v>100</v>
+      </c>
+      <c r="O140" s="2">
+        <v>30</v>
+      </c>
+      <c r="P140" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A141" s="5">
         <v>6148</v>
       </c>
@@ -4943,20 +7482,38 @@
       <c r="F141" s="2">
         <v>100</v>
       </c>
-      <c r="G141" s="2">
-        <v>0</v>
-      </c>
-      <c r="H141" s="2">
-        <v>100</v>
-      </c>
-      <c r="I141" s="2">
-        <v>30</v>
-      </c>
-      <c r="J141" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G141">
+        <v>0</v>
+      </c>
+      <c r="H141">
+        <v>0</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <v>0</v>
+      </c>
+      <c r="L141">
+        <v>0</v>
+      </c>
+      <c r="M141" s="2">
+        <v>0</v>
+      </c>
+      <c r="N141" s="2">
+        <v>100</v>
+      </c>
+      <c r="O141" s="2">
+        <v>30</v>
+      </c>
+      <c r="P141" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A142" s="5">
         <v>15021</v>
       </c>
@@ -4975,20 +7532,38 @@
       <c r="F142" s="2">
         <v>100</v>
       </c>
-      <c r="G142" s="2">
-        <v>0</v>
-      </c>
-      <c r="H142" s="2">
-        <v>100</v>
-      </c>
-      <c r="I142" s="2">
-        <v>30</v>
-      </c>
-      <c r="J142" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G142">
+        <v>0</v>
+      </c>
+      <c r="H142">
+        <v>0</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="K142">
+        <v>0</v>
+      </c>
+      <c r="L142">
+        <v>0</v>
+      </c>
+      <c r="M142" s="2">
+        <v>0</v>
+      </c>
+      <c r="N142" s="2">
+        <v>100</v>
+      </c>
+      <c r="O142" s="2">
+        <v>30</v>
+      </c>
+      <c r="P142" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A143" s="5">
         <v>54874</v>
       </c>
@@ -5007,20 +7582,38 @@
       <c r="F143" s="2">
         <v>100</v>
       </c>
-      <c r="G143" s="2">
-        <v>15</v>
-      </c>
-      <c r="H143" s="2">
-        <v>13</v>
-      </c>
-      <c r="I143" s="2">
-        <v>30</v>
-      </c>
-      <c r="J143" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G143">
+        <v>0</v>
+      </c>
+      <c r="H143">
+        <v>0</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+      <c r="K143">
+        <v>0</v>
+      </c>
+      <c r="L143">
+        <v>0</v>
+      </c>
+      <c r="M143" s="2">
+        <v>15</v>
+      </c>
+      <c r="N143" s="2">
+        <v>13</v>
+      </c>
+      <c r="O143" s="2">
+        <v>30</v>
+      </c>
+      <c r="P143" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A144" s="5">
         <v>84458</v>
       </c>
@@ -5039,20 +7632,38 @@
       <c r="F144" s="2">
         <v>100</v>
       </c>
-      <c r="G144" s="2">
-        <v>15</v>
-      </c>
-      <c r="H144" s="2">
-        <v>13</v>
-      </c>
-      <c r="I144" s="2">
-        <v>30</v>
-      </c>
-      <c r="J144" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G144">
+        <v>0</v>
+      </c>
+      <c r="H144">
+        <v>0</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <v>0</v>
+      </c>
+      <c r="L144">
+        <v>0</v>
+      </c>
+      <c r="M144" s="2">
+        <v>15</v>
+      </c>
+      <c r="N144" s="2">
+        <v>13</v>
+      </c>
+      <c r="O144" s="2">
+        <v>30</v>
+      </c>
+      <c r="P144" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A145" s="5">
         <v>50093</v>
       </c>
@@ -5071,20 +7682,38 @@
       <c r="F145" s="2">
         <v>100</v>
       </c>
-      <c r="G145" s="2">
-        <v>15</v>
-      </c>
-      <c r="H145" s="2">
-        <v>13</v>
-      </c>
-      <c r="I145" s="2">
-        <v>30</v>
-      </c>
-      <c r="J145" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G145">
+        <v>0</v>
+      </c>
+      <c r="H145">
+        <v>0</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>0</v>
+      </c>
+      <c r="L145">
+        <v>0</v>
+      </c>
+      <c r="M145" s="2">
+        <v>15</v>
+      </c>
+      <c r="N145" s="2">
+        <v>13</v>
+      </c>
+      <c r="O145" s="2">
+        <v>30</v>
+      </c>
+      <c r="P145" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A146" s="5">
         <v>131016</v>
       </c>
@@ -5103,20 +7732,38 @@
       <c r="F146" s="2">
         <v>100</v>
       </c>
-      <c r="G146" s="2">
-        <v>15</v>
-      </c>
-      <c r="H146" s="2">
-        <v>13</v>
-      </c>
-      <c r="I146" s="2">
-        <v>30</v>
-      </c>
-      <c r="J146" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G146">
+        <v>0</v>
+      </c>
+      <c r="H146">
+        <v>0</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <v>0</v>
+      </c>
+      <c r="L146">
+        <v>0</v>
+      </c>
+      <c r="M146" s="2">
+        <v>15</v>
+      </c>
+      <c r="N146" s="2">
+        <v>13</v>
+      </c>
+      <c r="O146" s="2">
+        <v>30</v>
+      </c>
+      <c r="P146" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A147" s="5">
         <v>238431</v>
       </c>
@@ -5135,20 +7782,38 @@
       <c r="F147" s="2">
         <v>100</v>
       </c>
-      <c r="G147" s="2">
-        <v>15</v>
-      </c>
-      <c r="H147" s="2">
-        <v>13</v>
-      </c>
-      <c r="I147" s="2">
-        <v>30</v>
-      </c>
-      <c r="J147" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G147">
+        <v>0</v>
+      </c>
+      <c r="H147">
+        <v>0</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <v>0</v>
+      </c>
+      <c r="L147">
+        <v>0</v>
+      </c>
+      <c r="M147" s="2">
+        <v>15</v>
+      </c>
+      <c r="N147" s="2">
+        <v>13</v>
+      </c>
+      <c r="O147" s="2">
+        <v>30</v>
+      </c>
+      <c r="P147" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A148" s="5">
         <v>167396</v>
       </c>
@@ -5167,20 +7832,38 @@
       <c r="F148" s="2">
         <v>100</v>
       </c>
-      <c r="G148" s="2">
-        <v>15</v>
-      </c>
-      <c r="H148" s="2">
-        <v>13</v>
-      </c>
-      <c r="I148" s="2">
-        <v>30</v>
-      </c>
-      <c r="J148" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G148">
+        <v>0</v>
+      </c>
+      <c r="H148">
+        <v>0</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <v>0</v>
+      </c>
+      <c r="L148">
+        <v>0</v>
+      </c>
+      <c r="M148" s="2">
+        <v>15</v>
+      </c>
+      <c r="N148" s="2">
+        <v>13</v>
+      </c>
+      <c r="O148" s="2">
+        <v>30</v>
+      </c>
+      <c r="P148" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A149" s="5">
         <v>93372</v>
       </c>
@@ -5199,20 +7882,38 @@
       <c r="F149" s="2">
         <v>100</v>
       </c>
-      <c r="G149" s="2">
-        <v>15</v>
-      </c>
-      <c r="H149" s="2">
-        <v>13</v>
-      </c>
-      <c r="I149" s="2">
-        <v>30</v>
-      </c>
-      <c r="J149" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G149">
+        <v>0</v>
+      </c>
+      <c r="H149">
+        <v>0</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>0</v>
+      </c>
+      <c r="L149">
+        <v>0</v>
+      </c>
+      <c r="M149" s="2">
+        <v>15</v>
+      </c>
+      <c r="N149" s="2">
+        <v>13</v>
+      </c>
+      <c r="O149" s="2">
+        <v>30</v>
+      </c>
+      <c r="P149" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A150" s="5">
         <v>73290</v>
       </c>
@@ -5231,20 +7932,38 @@
       <c r="F150" s="2">
         <v>100</v>
       </c>
-      <c r="G150" s="2">
-        <v>15</v>
-      </c>
-      <c r="H150" s="2">
-        <v>13</v>
-      </c>
-      <c r="I150" s="2">
-        <v>30</v>
-      </c>
-      <c r="J150" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G150">
+        <v>0</v>
+      </c>
+      <c r="H150">
+        <v>0</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150">
+        <v>0</v>
+      </c>
+      <c r="L150">
+        <v>0</v>
+      </c>
+      <c r="M150" s="2">
+        <v>15</v>
+      </c>
+      <c r="N150" s="2">
+        <v>13</v>
+      </c>
+      <c r="O150" s="2">
+        <v>30</v>
+      </c>
+      <c r="P150" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A151" s="5">
         <v>128690</v>
       </c>
@@ -5263,20 +7982,38 @@
       <c r="F151" s="2">
         <v>100</v>
       </c>
-      <c r="G151" s="2">
-        <v>15</v>
-      </c>
-      <c r="H151" s="2">
-        <v>13</v>
-      </c>
-      <c r="I151" s="2">
-        <v>30</v>
-      </c>
-      <c r="J151" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G151">
+        <v>0</v>
+      </c>
+      <c r="H151">
+        <v>0</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>0</v>
+      </c>
+      <c r="L151">
+        <v>0</v>
+      </c>
+      <c r="M151" s="2">
+        <v>15</v>
+      </c>
+      <c r="N151" s="2">
+        <v>13</v>
+      </c>
+      <c r="O151" s="2">
+        <v>30</v>
+      </c>
+      <c r="P151" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A152" s="5">
         <v>248822</v>
       </c>
@@ -5295,20 +8032,38 @@
       <c r="F152" s="2">
         <v>100</v>
       </c>
-      <c r="G152" s="2">
-        <v>15</v>
-      </c>
-      <c r="H152" s="2">
-        <v>13</v>
-      </c>
-      <c r="I152" s="2">
-        <v>30</v>
-      </c>
-      <c r="J152" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G152">
+        <v>0</v>
+      </c>
+      <c r="H152">
+        <v>0</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="K152">
+        <v>0</v>
+      </c>
+      <c r="L152">
+        <v>0</v>
+      </c>
+      <c r="M152" s="2">
+        <v>15</v>
+      </c>
+      <c r="N152" s="2">
+        <v>13</v>
+      </c>
+      <c r="O152" s="2">
+        <v>30</v>
+      </c>
+      <c r="P152" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A153" s="5">
         <v>98283</v>
       </c>
@@ -5327,20 +8082,38 @@
       <c r="F153" s="2">
         <v>100</v>
       </c>
-      <c r="G153" s="2">
-        <v>15</v>
-      </c>
-      <c r="H153" s="2">
-        <v>13</v>
-      </c>
-      <c r="I153" s="2">
-        <v>30</v>
-      </c>
-      <c r="J153" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G153">
+        <v>0</v>
+      </c>
+      <c r="H153">
+        <v>0</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+      <c r="K153">
+        <v>0</v>
+      </c>
+      <c r="L153">
+        <v>0</v>
+      </c>
+      <c r="M153" s="2">
+        <v>15</v>
+      </c>
+      <c r="N153" s="2">
+        <v>13</v>
+      </c>
+      <c r="O153" s="2">
+        <v>30</v>
+      </c>
+      <c r="P153" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A154" s="5">
         <v>127199</v>
       </c>
@@ -5359,20 +8132,38 @@
       <c r="F154" s="2">
         <v>100</v>
       </c>
-      <c r="G154" s="2">
-        <v>15</v>
-      </c>
-      <c r="H154" s="2">
-        <v>13</v>
-      </c>
-      <c r="I154" s="2">
-        <v>30</v>
-      </c>
-      <c r="J154" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G154">
+        <v>0</v>
+      </c>
+      <c r="H154">
+        <v>0</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
+      <c r="K154">
+        <v>0</v>
+      </c>
+      <c r="L154">
+        <v>0</v>
+      </c>
+      <c r="M154" s="2">
+        <v>15</v>
+      </c>
+      <c r="N154" s="2">
+        <v>13</v>
+      </c>
+      <c r="O154" s="2">
+        <v>30</v>
+      </c>
+      <c r="P154" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A155" s="5">
         <v>881</v>
       </c>
@@ -5391,20 +8182,38 @@
       <c r="F155" s="2">
         <v>100</v>
       </c>
-      <c r="G155" s="2">
-        <v>15</v>
-      </c>
-      <c r="H155" s="2">
-        <v>13</v>
-      </c>
-      <c r="I155" s="2">
-        <v>30</v>
-      </c>
-      <c r="J155" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G155">
+        <v>0</v>
+      </c>
+      <c r="H155">
+        <v>0</v>
+      </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="K155">
+        <v>0</v>
+      </c>
+      <c r="L155">
+        <v>0</v>
+      </c>
+      <c r="M155" s="2">
+        <v>15</v>
+      </c>
+      <c r="N155" s="2">
+        <v>13</v>
+      </c>
+      <c r="O155" s="2">
+        <v>30</v>
+      </c>
+      <c r="P155" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A156" s="5">
         <v>4648</v>
       </c>
@@ -5423,16 +8232,34 @@
       <c r="F156" s="2">
         <v>100</v>
       </c>
-      <c r="G156" s="2">
-        <v>15</v>
-      </c>
-      <c r="H156" s="2">
-        <v>13</v>
-      </c>
-      <c r="I156" s="2">
-        <v>30</v>
-      </c>
-      <c r="J156" s="2">
+      <c r="G156">
+        <v>0</v>
+      </c>
+      <c r="H156">
+        <v>0</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
+      <c r="K156">
+        <v>0</v>
+      </c>
+      <c r="L156">
+        <v>0</v>
+      </c>
+      <c r="M156" s="2">
+        <v>15</v>
+      </c>
+      <c r="N156" s="2">
+        <v>13</v>
+      </c>
+      <c r="O156" s="2">
+        <v>30</v>
+      </c>
+      <c r="P156" s="2">
         <v>8</v>
       </c>
     </row>

--- a/directed trips and regulations 2021.xlsx
+++ b/directed trips and regulations 2021.xlsx
@@ -443,8 +443,8 @@
   <dimension ref="A1:P156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2:L156"/>
+      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H101" sqref="H101:I107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4935,20 +4935,20 @@
       <c r="G90">
         <v>0</v>
       </c>
-      <c r="H90">
-        <v>0</v>
-      </c>
-      <c r="I90">
-        <v>0</v>
+      <c r="H90" s="2">
+        <v>100</v>
+      </c>
+      <c r="I90" s="2">
+        <v>100</v>
       </c>
       <c r="J90">
         <v>0</v>
       </c>
-      <c r="K90">
-        <v>0</v>
-      </c>
-      <c r="L90">
-        <v>0</v>
+      <c r="K90" s="2">
+        <v>100</v>
+      </c>
+      <c r="L90" s="2">
+        <v>100</v>
       </c>
       <c r="M90" s="2">
         <v>0</v>
@@ -4985,20 +4985,20 @@
       <c r="G91">
         <v>0</v>
       </c>
-      <c r="H91">
-        <v>0</v>
-      </c>
-      <c r="I91">
-        <v>0</v>
+      <c r="H91" s="2">
+        <v>100</v>
+      </c>
+      <c r="I91" s="2">
+        <v>100</v>
       </c>
       <c r="J91">
         <v>0</v>
       </c>
-      <c r="K91">
-        <v>0</v>
-      </c>
-      <c r="L91">
-        <v>0</v>
+      <c r="K91" s="2">
+        <v>100</v>
+      </c>
+      <c r="L91" s="2">
+        <v>100</v>
       </c>
       <c r="M91" s="2">
         <v>0</v>
@@ -5035,20 +5035,20 @@
       <c r="G92">
         <v>0</v>
       </c>
-      <c r="H92">
-        <v>0</v>
-      </c>
-      <c r="I92">
-        <v>0</v>
+      <c r="H92" s="2">
+        <v>100</v>
+      </c>
+      <c r="I92" s="2">
+        <v>100</v>
       </c>
       <c r="J92">
         <v>0</v>
       </c>
-      <c r="K92">
-        <v>0</v>
-      </c>
-      <c r="L92">
-        <v>0</v>
+      <c r="K92" s="2">
+        <v>100</v>
+      </c>
+      <c r="L92" s="2">
+        <v>100</v>
       </c>
       <c r="M92" s="2">
         <v>0</v>
@@ -5082,23 +5082,23 @@
       <c r="F93" s="2">
         <v>100</v>
       </c>
-      <c r="G93">
-        <v>0</v>
-      </c>
-      <c r="H93">
-        <v>0</v>
-      </c>
-      <c r="I93">
-        <v>0</v>
+      <c r="G93" s="2">
+        <v>3</v>
+      </c>
+      <c r="H93" s="2">
+        <v>18</v>
+      </c>
+      <c r="I93" s="2">
+        <v>100</v>
       </c>
       <c r="J93">
         <v>0</v>
       </c>
       <c r="K93">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L93">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M93" s="2">
         <v>10</v>
@@ -5132,23 +5132,23 @@
       <c r="F94" s="2">
         <v>100</v>
       </c>
-      <c r="G94">
-        <v>0</v>
-      </c>
-      <c r="H94">
-        <v>0</v>
-      </c>
-      <c r="I94">
-        <v>0</v>
+      <c r="G94" s="2">
+        <v>3</v>
+      </c>
+      <c r="H94" s="2">
+        <v>18</v>
+      </c>
+      <c r="I94" s="2">
+        <v>100</v>
       </c>
       <c r="J94">
         <v>0</v>
       </c>
       <c r="K94">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L94">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M94" s="2">
         <v>10</v>
@@ -5182,23 +5182,23 @@
       <c r="F95" s="2">
         <v>100</v>
       </c>
-      <c r="G95">
-        <v>0</v>
-      </c>
-      <c r="H95">
-        <v>0</v>
-      </c>
-      <c r="I95">
-        <v>0</v>
+      <c r="G95" s="2">
+        <v>3</v>
+      </c>
+      <c r="H95" s="2">
+        <v>18</v>
+      </c>
+      <c r="I95" s="2">
+        <v>100</v>
       </c>
       <c r="J95">
         <v>0</v>
       </c>
       <c r="K95">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L95">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M95" s="2">
         <v>10</v>
@@ -5232,23 +5232,23 @@
       <c r="F96" s="2">
         <v>100</v>
       </c>
-      <c r="G96">
-        <v>0</v>
-      </c>
-      <c r="H96">
-        <v>0</v>
-      </c>
-      <c r="I96">
-        <v>0</v>
+      <c r="G96" s="2">
+        <v>3</v>
+      </c>
+      <c r="H96" s="2">
+        <v>18</v>
+      </c>
+      <c r="I96" s="2">
+        <v>100</v>
       </c>
       <c r="J96">
         <v>0</v>
       </c>
       <c r="K96">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L96">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M96" s="2">
         <v>2</v>
@@ -5282,23 +5282,23 @@
       <c r="F97" s="2">
         <v>100</v>
       </c>
-      <c r="G97">
-        <v>0</v>
-      </c>
-      <c r="H97">
-        <v>0</v>
-      </c>
-      <c r="I97">
-        <v>0</v>
+      <c r="G97" s="2">
+        <v>3</v>
+      </c>
+      <c r="H97" s="2">
+        <v>18</v>
+      </c>
+      <c r="I97" s="2">
+        <v>100</v>
       </c>
       <c r="J97">
         <v>0</v>
       </c>
       <c r="K97">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L97">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M97" s="2">
         <v>2</v>
@@ -5332,23 +5332,23 @@
       <c r="F98" s="2">
         <v>100</v>
       </c>
-      <c r="G98">
-        <v>0</v>
-      </c>
-      <c r="H98">
-        <v>0</v>
-      </c>
-      <c r="I98">
-        <v>0</v>
+      <c r="G98" s="2">
+        <v>3</v>
+      </c>
+      <c r="H98" s="2">
+        <v>18</v>
+      </c>
+      <c r="I98" s="2">
+        <v>100</v>
       </c>
       <c r="J98">
         <v>0</v>
       </c>
       <c r="K98">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L98">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M98" s="2">
         <v>2</v>
@@ -5382,23 +5382,23 @@
       <c r="F99" s="2">
         <v>100</v>
       </c>
-      <c r="G99">
-        <v>0</v>
-      </c>
-      <c r="H99">
-        <v>0</v>
-      </c>
-      <c r="I99">
-        <v>0</v>
+      <c r="G99" s="2">
+        <v>3</v>
+      </c>
+      <c r="H99" s="2">
+        <v>18</v>
+      </c>
+      <c r="I99" s="2">
+        <v>100</v>
       </c>
       <c r="J99">
         <v>0</v>
       </c>
       <c r="K99">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L99">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M99" s="2">
         <v>2</v>
@@ -5432,23 +5432,23 @@
       <c r="F100" s="2">
         <v>100</v>
       </c>
-      <c r="G100">
-        <v>0</v>
-      </c>
-      <c r="H100">
-        <v>0</v>
-      </c>
-      <c r="I100">
-        <v>0</v>
+      <c r="G100" s="2">
+        <v>3</v>
+      </c>
+      <c r="H100" s="2">
+        <v>18</v>
+      </c>
+      <c r="I100" s="2">
+        <v>100</v>
       </c>
       <c r="J100">
         <v>0</v>
       </c>
       <c r="K100">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L100">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M100" s="2">
         <v>0</v>
@@ -5485,20 +5485,20 @@
       <c r="G101">
         <v>0</v>
       </c>
-      <c r="H101">
-        <v>0</v>
-      </c>
-      <c r="I101">
-        <v>0</v>
+      <c r="H101" s="2">
+        <v>100</v>
+      </c>
+      <c r="I101" s="2">
+        <v>100</v>
       </c>
       <c r="J101">
         <v>0</v>
       </c>
       <c r="K101">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L101">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M101" s="2">
         <v>0</v>
@@ -5535,20 +5535,20 @@
       <c r="G102">
         <v>0</v>
       </c>
-      <c r="H102">
-        <v>0</v>
-      </c>
-      <c r="I102">
-        <v>0</v>
+      <c r="H102" s="2">
+        <v>100</v>
+      </c>
+      <c r="I102" s="2">
+        <v>100</v>
       </c>
       <c r="J102">
         <v>0</v>
       </c>
       <c r="K102">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L102">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M102" s="2">
         <v>10</v>
@@ -5585,20 +5585,20 @@
       <c r="G103">
         <v>0</v>
       </c>
-      <c r="H103">
-        <v>0</v>
-      </c>
-      <c r="I103">
-        <v>0</v>
+      <c r="H103" s="2">
+        <v>100</v>
+      </c>
+      <c r="I103" s="2">
+        <v>100</v>
       </c>
       <c r="J103">
         <v>0</v>
       </c>
       <c r="K103">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L103">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M103" s="2">
         <v>10</v>
@@ -5635,20 +5635,20 @@
       <c r="G104">
         <v>0</v>
       </c>
-      <c r="H104">
-        <v>0</v>
-      </c>
-      <c r="I104">
-        <v>0</v>
+      <c r="H104" s="2">
+        <v>100</v>
+      </c>
+      <c r="I104" s="2">
+        <v>100</v>
       </c>
       <c r="J104">
         <v>0</v>
       </c>
       <c r="K104">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L104">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M104" s="2">
         <v>15</v>
@@ -5685,20 +5685,20 @@
       <c r="G105">
         <v>0</v>
       </c>
-      <c r="H105">
-        <v>0</v>
-      </c>
-      <c r="I105">
-        <v>0</v>
+      <c r="H105" s="2">
+        <v>100</v>
+      </c>
+      <c r="I105" s="2">
+        <v>100</v>
       </c>
       <c r="J105">
         <v>0</v>
       </c>
       <c r="K105">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L105">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M105" s="2">
         <v>15</v>
@@ -5735,20 +5735,20 @@
       <c r="G106">
         <v>0</v>
       </c>
-      <c r="H106">
-        <v>0</v>
-      </c>
-      <c r="I106">
-        <v>0</v>
+      <c r="H106" s="2">
+        <v>100</v>
+      </c>
+      <c r="I106" s="2">
+        <v>100</v>
       </c>
       <c r="J106">
         <v>0</v>
       </c>
       <c r="K106">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L106">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M106" s="2">
         <v>15</v>
@@ -5785,20 +5785,20 @@
       <c r="G107">
         <v>0</v>
       </c>
-      <c r="H107">
-        <v>0</v>
-      </c>
-      <c r="I107">
-        <v>0</v>
+      <c r="H107" s="2">
+        <v>100</v>
+      </c>
+      <c r="I107" s="2">
+        <v>100</v>
       </c>
       <c r="J107">
         <v>0</v>
       </c>
       <c r="K107">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L107">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M107" s="2">
         <v>15</v>
